--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01114440208682055</v>
+        <v>0.01114440208640843</v>
       </c>
       <c r="D2">
-        <v>0.3792994349414869</v>
+        <v>0.3792994349412453</v>
       </c>
       <c r="E2">
-        <v>0.4943018620752042</v>
+        <v>0.4943018620752255</v>
       </c>
       <c r="F2">
         <v>7.74882743815806</v>
       </c>
       <c r="G2">
-        <v>6.791422418934417</v>
+        <v>6.791422418934445</v>
       </c>
       <c r="H2">
         <v>6.309091740655219</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4276977664476149</v>
+        <v>0.4276977664476362</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009372614667121582</v>
+        <v>0.009372614666741441</v>
       </c>
       <c r="D3">
-        <v>0.3168968195740263</v>
+        <v>0.3168968195737705</v>
       </c>
       <c r="E3">
-        <v>0.4127360838853349</v>
+        <v>0.4127360838853207</v>
       </c>
       <c r="F3">
-        <v>6.513083734941517</v>
+        <v>6.513083734941631</v>
       </c>
       <c r="G3">
-        <v>5.705724797644308</v>
+        <v>5.705724797644393</v>
       </c>
       <c r="H3">
-        <v>5.301621196180832</v>
+        <v>5.301621196180918</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3570071938632751</v>
+        <v>0.3570071938632182</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008355723894464262</v>
+        <v>0.008355723894901246</v>
       </c>
       <c r="D4">
-        <v>0.2811973132056806</v>
+        <v>0.2811973132057091</v>
       </c>
       <c r="E4">
-        <v>0.3660577107424103</v>
+        <v>0.366057710742389</v>
       </c>
       <c r="F4">
-        <v>5.801598661646096</v>
+        <v>5.801598661646011</v>
       </c>
       <c r="G4">
         <v>5.08091900732623</v>
       </c>
       <c r="H4">
-        <v>4.721838809585705</v>
+        <v>4.721838809585648</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3165442432708474</v>
+        <v>0.3165442432708332</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007954973580044822</v>
+        <v>0.007954973579721525</v>
       </c>
       <c r="D5">
-        <v>0.267160543820836</v>
+        <v>0.2671605438206512</v>
       </c>
       <c r="E5">
-        <v>0.3477004952812237</v>
+        <v>0.3477004952812308</v>
       </c>
       <c r="F5">
         <v>5.52097315776075</v>
       </c>
       <c r="G5">
-        <v>4.834537330227135</v>
+        <v>4.834537330227107</v>
       </c>
       <c r="H5">
         <v>4.493214476788268</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3006292119633898</v>
+        <v>0.3006292119634253</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007889150433026515</v>
+        <v>0.007889150433548764</v>
       </c>
       <c r="D6">
-        <v>0.2648570238253143</v>
+        <v>0.2648570238252859</v>
       </c>
       <c r="E6">
-        <v>0.3446877526188956</v>
+        <v>0.3446877526189098</v>
       </c>
       <c r="F6">
-        <v>5.47487440210557</v>
+        <v>5.474874402105627</v>
       </c>
       <c r="G6">
-        <v>4.79406679707634</v>
+        <v>4.794066797076397</v>
       </c>
       <c r="H6">
-        <v>4.455660991984047</v>
+        <v>4.455660991984132</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2980171424520037</v>
+        <v>0.298017142451954</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008350268772446157</v>
+        <v>0.008350268772019831</v>
       </c>
       <c r="D7">
-        <v>0.2810061057624438</v>
+        <v>0.2810061057622306</v>
       </c>
       <c r="E7">
-        <v>0.3658076651119231</v>
+        <v>0.3658076651119515</v>
       </c>
       <c r="F7">
         <v>5.797779290134002</v>
       </c>
       <c r="G7">
-        <v>5.077565493565487</v>
+        <v>5.077565493565515</v>
       </c>
       <c r="H7">
-        <v>4.718726976974352</v>
+        <v>4.718726976974409</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3163274718256233</v>
+        <v>0.3163274718256019</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01051582412070218</v>
+        <v>0.0105158241212564</v>
       </c>
       <c r="D8">
-        <v>0.3571382140668504</v>
+        <v>0.3571382140670067</v>
       </c>
       <c r="E8">
-        <v>0.465338891655982</v>
+        <v>0.465338891656053</v>
       </c>
       <c r="F8">
-        <v>7.311153517199187</v>
+        <v>7.311153517199301</v>
       </c>
       <c r="G8">
-        <v>6.406816418056508</v>
+        <v>6.40681641805665</v>
       </c>
       <c r="H8">
-        <v>5.952197936289593</v>
+        <v>5.952197936289679</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4025981597364705</v>
+        <v>0.402598159736506</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01560984736131132</v>
+        <v>0.01560984736129711</v>
       </c>
       <c r="D9">
-        <v>0.537011823250225</v>
+        <v>0.5370118232498271</v>
       </c>
       <c r="E9">
-        <v>0.7003249925433508</v>
+        <v>0.7003249925433721</v>
       </c>
       <c r="F9">
-        <v>10.82393951905377</v>
+        <v>10.82393951905391</v>
       </c>
       <c r="G9">
-        <v>9.496200990772138</v>
+        <v>9.496200990772309</v>
       </c>
       <c r="H9">
-        <v>8.818862622295228</v>
+        <v>8.818862622295313</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6062090842023906</v>
+        <v>0.6062090842023622</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02058172911243616</v>
+        <v>0.02058172911242906</v>
       </c>
       <c r="D10">
-        <v>0.7121922336771433</v>
+        <v>0.712192233676717</v>
       </c>
       <c r="E10">
-        <v>0.9290485800250678</v>
+        <v>0.9290485800250821</v>
       </c>
       <c r="F10">
-        <v>14.15101962479667</v>
+        <v>14.15101962479673</v>
       </c>
       <c r="G10">
         <v>12.42827987051598</v>
       </c>
       <c r="H10">
-        <v>11.53905781524071</v>
+        <v>11.53905781524074</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02350505153055238</v>
+        <v>0.02350505152960025</v>
       </c>
       <c r="D11">
-        <v>0.8145623794992218</v>
+        <v>0.8145623794987955</v>
       </c>
       <c r="E11">
-        <v>1.062708208543185</v>
+        <v>1.062708208543214</v>
       </c>
       <c r="F11">
-        <v>16.04755032049593</v>
+        <v>16.04755032049604</v>
       </c>
       <c r="G11">
-        <v>14.10276030013628</v>
+        <v>14.10276030013631</v>
       </c>
       <c r="H11">
-        <v>13.09218191167085</v>
+        <v>13.09218191167093</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9202003426804808</v>
+        <v>0.9202003426805021</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02479436474400032</v>
+        <v>0.02479436474384045</v>
       </c>
       <c r="D12">
-        <v>0.8595083821759317</v>
+        <v>0.8595083821757044</v>
       </c>
       <c r="E12">
-        <v>1.121406372046337</v>
+        <v>1.121406372046351</v>
       </c>
       <c r="F12">
-        <v>16.86826957973983</v>
+        <v>16.86826957974012</v>
       </c>
       <c r="G12">
-        <v>14.82818254749174</v>
+        <v>14.82818254749205</v>
       </c>
       <c r="H12">
-        <v>13.7649305786785</v>
+        <v>13.76493057867887</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9710709450121726</v>
+        <v>0.9710709450121584</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02450588642637541</v>
+        <v>0.02450588642624041</v>
       </c>
       <c r="D13">
-        <v>0.8494637964676031</v>
+        <v>0.8494637964679725</v>
       </c>
       <c r="E13">
         <v>1.108287266402243</v>
       </c>
       <c r="F13">
-        <v>16.6855072965206</v>
+        <v>16.68550729652077</v>
       </c>
       <c r="G13">
-        <v>14.66659761656535</v>
+        <v>14.66659761656555</v>
       </c>
       <c r="H13">
-        <v>13.61508413126552</v>
+        <v>13.61508413126563</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9597009212516312</v>
+        <v>0.9597009212517236</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02360656689935325</v>
+        <v>0.02360656689900864</v>
       </c>
       <c r="D14">
-        <v>0.8181061177695312</v>
+        <v>0.818106117769986</v>
       </c>
       <c r="E14">
-        <v>1.067335779348184</v>
+        <v>1.067335779348142</v>
       </c>
       <c r="F14">
-        <v>16.11253077572445</v>
+        <v>16.11253077572428</v>
       </c>
       <c r="G14">
-        <v>14.16017735416446</v>
+        <v>14.16017735416435</v>
       </c>
       <c r="H14">
-        <v>13.14543219558726</v>
+        <v>13.1454321955872</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02308383172796624</v>
+        <v>0.02308383172808703</v>
       </c>
       <c r="D15">
-        <v>0.7998497237848312</v>
+        <v>0.7998497237844617</v>
       </c>
       <c r="E15">
-        <v>1.043496446860459</v>
+        <v>1.043496446860473</v>
       </c>
       <c r="F15">
-        <v>15.77727863412974</v>
+        <v>15.77727863412986</v>
       </c>
       <c r="G15">
-        <v>13.86397977236163</v>
+        <v>13.86397977236169</v>
       </c>
       <c r="H15">
-        <v>12.87072559449962</v>
+        <v>12.8707255944997</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9035514491426682</v>
+        <v>0.9035514491426611</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0204094562676751</v>
+        <v>0.02040945626731272</v>
       </c>
       <c r="D16">
-        <v>0.706141865197452</v>
+        <v>0.706141865197111</v>
       </c>
       <c r="E16">
-        <v>0.9211495771029661</v>
+        <v>0.9211495771029092</v>
       </c>
       <c r="F16">
         <v>14.03778493996441</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7975348796971389</v>
+        <v>0.7975348796971033</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01897631572641245</v>
+        <v>0.01897631572677128</v>
       </c>
       <c r="D17">
-        <v>0.6557442892843994</v>
+        <v>0.655744289284371</v>
       </c>
       <c r="E17">
         <v>0.8553534597684447</v>
       </c>
       <c r="F17">
-        <v>13.0897917562225</v>
+        <v>13.08979175622255</v>
       </c>
       <c r="G17">
-        <v>11.492334506844</v>
+        <v>11.49233450684409</v>
       </c>
       <c r="H17">
-        <v>10.67082245276785</v>
+        <v>10.67082245276794</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7405260779637217</v>
+        <v>0.7405260779637288</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01820690814182413</v>
+        <v>0.01820690814258796</v>
       </c>
       <c r="D18">
         <v>0.6286449230895812</v>
       </c>
       <c r="E18">
-        <v>0.819973130207714</v>
+        <v>0.8199731302077495</v>
       </c>
       <c r="F18">
-        <v>12.57657873505084</v>
+        <v>12.57657873505079</v>
       </c>
       <c r="G18">
-        <v>11.03995536183788</v>
+        <v>11.03995536183785</v>
       </c>
       <c r="H18">
-        <v>10.25114298953557</v>
+        <v>10.25114298953551</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7098719386157057</v>
+        <v>0.7098719386156418</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01795440009060201</v>
+        <v>0.01795440009056648</v>
       </c>
       <c r="D19">
-        <v>0.6197456682763516</v>
+        <v>0.6197456682762947</v>
       </c>
       <c r="E19">
-        <v>0.8083541684941551</v>
+        <v>0.8083541684942048</v>
       </c>
       <c r="F19">
-        <v>12.40752460326775</v>
+        <v>12.40752460326794</v>
       </c>
       <c r="G19">
-        <v>10.89097412736695</v>
+        <v>10.89097412736709</v>
       </c>
       <c r="H19">
-        <v>10.11292709096261</v>
+        <v>10.11292709096278</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6998051802473597</v>
+        <v>0.6998051802474023</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0191228270175543</v>
+        <v>0.01912282701792378</v>
       </c>
       <c r="D20">
         <v>0.6609014284194075</v>
       </c>
       <c r="E20">
-        <v>0.8620863878037781</v>
+        <v>0.8620863878038136</v>
       </c>
       <c r="F20">
         <v>13.18718695108373</v>
       </c>
       <c r="G20">
-        <v>11.57820274314435</v>
+        <v>11.57820274314432</v>
       </c>
       <c r="H20">
-        <v>10.75048188641273</v>
+        <v>10.75048188641267</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7463596748402779</v>
+        <v>0.7463596748402708</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02386451431862824</v>
+        <v>0.023864514318376</v>
       </c>
       <c r="D21">
-        <v>0.8271069799754969</v>
+        <v>0.8271069799756958</v>
       </c>
       <c r="E21">
-        <v>1.079089816297639</v>
+        <v>1.079089816297625</v>
       </c>
       <c r="F21">
         <v>16.27736953232551</v>
       </c>
       <c r="G21">
-        <v>14.30584360106954</v>
+        <v>14.30584360106951</v>
       </c>
       <c r="H21">
-        <v>13.28052564001013</v>
+        <v>13.28052564001015</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02820444811112566</v>
+        <v>0.02820444811136724</v>
       </c>
       <c r="D22">
-        <v>0.9776770768056906</v>
+        <v>0.9776770768054632</v>
       </c>
       <c r="E22">
-        <v>1.275821482952963</v>
+        <v>1.275821482952921</v>
       </c>
       <c r="F22">
-        <v>18.98908707684933</v>
+        <v>18.98908707684939</v>
       </c>
       <c r="G22">
         <v>16.70522210527375</v>
       </c>
       <c r="H22">
-        <v>15.50534998981152</v>
+        <v>15.50534998981155</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.104917745932681</v>
+        <v>1.104917745932688</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02570026510473156</v>
+        <v>0.02570026510495182</v>
       </c>
       <c r="D23">
-        <v>0.891004527075296</v>
+        <v>0.8910045270755234</v>
       </c>
       <c r="E23">
-        <v>1.162548432149805</v>
+        <v>1.162548432149819</v>
       </c>
       <c r="F23">
-        <v>17.43886591113346</v>
+        <v>17.43886591113369</v>
       </c>
       <c r="G23">
-        <v>15.33282880046519</v>
+        <v>15.33282880046531</v>
       </c>
       <c r="H23">
-        <v>14.2328945333991</v>
+        <v>14.23289453339925</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.006729345387981</v>
+        <v>1.006729345388109</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01905642415590236</v>
+        <v>0.01905642415550801</v>
       </c>
       <c r="D24">
         <v>0.6585642047539864</v>
       </c>
       <c r="E24">
-        <v>0.8590350177769679</v>
+        <v>0.8590350177769892</v>
       </c>
       <c r="F24">
-        <v>13.14305813224149</v>
+        <v>13.14305813224163</v>
       </c>
       <c r="G24">
-        <v>11.53929596533658</v>
+        <v>11.53929596533669</v>
       </c>
       <c r="H24">
-        <v>10.71438838625014</v>
+        <v>10.71438838625019</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01408999801714472</v>
+        <v>0.01408999801636313</v>
       </c>
       <c r="D25">
-        <v>0.4833190249957511</v>
+        <v>0.4833190249953674</v>
       </c>
       <c r="E25">
-        <v>0.6302010790424006</v>
+        <v>0.6302010790424291</v>
       </c>
       <c r="F25">
-        <v>9.785066476570307</v>
+        <v>9.78506647657025</v>
       </c>
       <c r="G25">
-        <v>8.581921282195196</v>
+        <v>8.581921282195225</v>
       </c>
       <c r="H25">
         <v>7.970533645862218</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5454531460405576</v>
+        <v>0.545453146040586</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01114440208640843</v>
+        <v>0.01114440208682055</v>
       </c>
       <c r="D2">
-        <v>0.3792994349412453</v>
+        <v>0.3792994349414869</v>
       </c>
       <c r="E2">
-        <v>0.4943018620752255</v>
+        <v>0.4943018620752042</v>
       </c>
       <c r="F2">
         <v>7.74882743815806</v>
       </c>
       <c r="G2">
-        <v>6.791422418934445</v>
+        <v>6.791422418934417</v>
       </c>
       <c r="H2">
         <v>6.309091740655219</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4276977664476362</v>
+        <v>0.4276977664476149</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009372614666741441</v>
+        <v>0.009372614667121582</v>
       </c>
       <c r="D3">
-        <v>0.3168968195737705</v>
+        <v>0.3168968195740263</v>
       </c>
       <c r="E3">
-        <v>0.4127360838853207</v>
+        <v>0.4127360838853349</v>
       </c>
       <c r="F3">
-        <v>6.513083734941631</v>
+        <v>6.513083734941517</v>
       </c>
       <c r="G3">
-        <v>5.705724797644393</v>
+        <v>5.705724797644308</v>
       </c>
       <c r="H3">
-        <v>5.301621196180918</v>
+        <v>5.301621196180832</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3570071938632182</v>
+        <v>0.3570071938632751</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008355723894901246</v>
+        <v>0.008355723894464262</v>
       </c>
       <c r="D4">
-        <v>0.2811973132057091</v>
+        <v>0.2811973132056806</v>
       </c>
       <c r="E4">
-        <v>0.366057710742389</v>
+        <v>0.3660577107424103</v>
       </c>
       <c r="F4">
-        <v>5.801598661646011</v>
+        <v>5.801598661646096</v>
       </c>
       <c r="G4">
         <v>5.08091900732623</v>
       </c>
       <c r="H4">
-        <v>4.721838809585648</v>
+        <v>4.721838809585705</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3165442432708332</v>
+        <v>0.3165442432708474</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007954973579721525</v>
+        <v>0.007954973580044822</v>
       </c>
       <c r="D5">
-        <v>0.2671605438206512</v>
+        <v>0.267160543820836</v>
       </c>
       <c r="E5">
-        <v>0.3477004952812308</v>
+        <v>0.3477004952812237</v>
       </c>
       <c r="F5">
         <v>5.52097315776075</v>
       </c>
       <c r="G5">
-        <v>4.834537330227107</v>
+        <v>4.834537330227135</v>
       </c>
       <c r="H5">
         <v>4.493214476788268</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3006292119634253</v>
+        <v>0.3006292119633898</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,22 +567,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007889150433548764</v>
+        <v>0.007889150433026515</v>
       </c>
       <c r="D6">
-        <v>0.2648570238252859</v>
+        <v>0.2648570238253143</v>
       </c>
       <c r="E6">
-        <v>0.3446877526189098</v>
+        <v>0.3446877526188956</v>
       </c>
       <c r="F6">
-        <v>5.474874402105627</v>
+        <v>5.47487440210557</v>
       </c>
       <c r="G6">
-        <v>4.794066797076397</v>
+        <v>4.79406679707634</v>
       </c>
       <c r="H6">
-        <v>4.455660991984132</v>
+        <v>4.455660991984047</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.298017142451954</v>
+        <v>0.2980171424520037</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008350268772019831</v>
+        <v>0.008350268772446157</v>
       </c>
       <c r="D7">
-        <v>0.2810061057622306</v>
+        <v>0.2810061057624438</v>
       </c>
       <c r="E7">
-        <v>0.3658076651119515</v>
+        <v>0.3658076651119231</v>
       </c>
       <c r="F7">
         <v>5.797779290134002</v>
       </c>
       <c r="G7">
-        <v>5.077565493565515</v>
+        <v>5.077565493565487</v>
       </c>
       <c r="H7">
-        <v>4.718726976974409</v>
+        <v>4.718726976974352</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3163274718256019</v>
+        <v>0.3163274718256233</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0105158241212564</v>
+        <v>0.01051582412070218</v>
       </c>
       <c r="D8">
-        <v>0.3571382140670067</v>
+        <v>0.3571382140668504</v>
       </c>
       <c r="E8">
-        <v>0.465338891656053</v>
+        <v>0.465338891655982</v>
       </c>
       <c r="F8">
-        <v>7.311153517199301</v>
+        <v>7.311153517199187</v>
       </c>
       <c r="G8">
-        <v>6.40681641805665</v>
+        <v>6.406816418056508</v>
       </c>
       <c r="H8">
-        <v>5.952197936289679</v>
+        <v>5.952197936289593</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.402598159736506</v>
+        <v>0.4025981597364705</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01560984736129711</v>
+        <v>0.01560984736131132</v>
       </c>
       <c r="D9">
-        <v>0.5370118232498271</v>
+        <v>0.537011823250225</v>
       </c>
       <c r="E9">
-        <v>0.7003249925433721</v>
+        <v>0.7003249925433508</v>
       </c>
       <c r="F9">
-        <v>10.82393951905391</v>
+        <v>10.82393951905377</v>
       </c>
       <c r="G9">
-        <v>9.496200990772309</v>
+        <v>9.496200990772138</v>
       </c>
       <c r="H9">
-        <v>8.818862622295313</v>
+        <v>8.818862622295228</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6062090842023622</v>
+        <v>0.6062090842023906</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02058172911242906</v>
+        <v>0.02058172911243616</v>
       </c>
       <c r="D10">
-        <v>0.712192233676717</v>
+        <v>0.7121922336771433</v>
       </c>
       <c r="E10">
-        <v>0.9290485800250821</v>
+        <v>0.9290485800250678</v>
       </c>
       <c r="F10">
-        <v>14.15101962479673</v>
+        <v>14.15101962479667</v>
       </c>
       <c r="G10">
         <v>12.42827987051598</v>
       </c>
       <c r="H10">
-        <v>11.53905781524074</v>
+        <v>11.53905781524071</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -757,22 +757,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02350505152960025</v>
+        <v>0.02350505153055238</v>
       </c>
       <c r="D11">
-        <v>0.8145623794987955</v>
+        <v>0.8145623794992218</v>
       </c>
       <c r="E11">
-        <v>1.062708208543214</v>
+        <v>1.062708208543185</v>
       </c>
       <c r="F11">
-        <v>16.04755032049604</v>
+        <v>16.04755032049593</v>
       </c>
       <c r="G11">
-        <v>14.10276030013631</v>
+        <v>14.10276030013628</v>
       </c>
       <c r="H11">
-        <v>13.09218191167093</v>
+        <v>13.09218191167085</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9202003426805021</v>
+        <v>0.9202003426804808</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02479436474384045</v>
+        <v>0.02479436474400032</v>
       </c>
       <c r="D12">
-        <v>0.8595083821757044</v>
+        <v>0.8595083821759317</v>
       </c>
       <c r="E12">
-        <v>1.121406372046351</v>
+        <v>1.121406372046337</v>
       </c>
       <c r="F12">
-        <v>16.86826957974012</v>
+        <v>16.86826957973983</v>
       </c>
       <c r="G12">
-        <v>14.82818254749205</v>
+        <v>14.82818254749174</v>
       </c>
       <c r="H12">
-        <v>13.76493057867887</v>
+        <v>13.7649305786785</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9710709450121584</v>
+        <v>0.9710709450121726</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02450588642624041</v>
+        <v>0.02450588642637541</v>
       </c>
       <c r="D13">
-        <v>0.8494637964679725</v>
+        <v>0.8494637964676031</v>
       </c>
       <c r="E13">
         <v>1.108287266402243</v>
       </c>
       <c r="F13">
-        <v>16.68550729652077</v>
+        <v>16.6855072965206</v>
       </c>
       <c r="G13">
-        <v>14.66659761656555</v>
+        <v>14.66659761656535</v>
       </c>
       <c r="H13">
-        <v>13.61508413126563</v>
+        <v>13.61508413126552</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9597009212517236</v>
+        <v>0.9597009212516312</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02360656689900864</v>
+        <v>0.02360656689935325</v>
       </c>
       <c r="D14">
-        <v>0.818106117769986</v>
+        <v>0.8181061177695312</v>
       </c>
       <c r="E14">
-        <v>1.067335779348142</v>
+        <v>1.067335779348184</v>
       </c>
       <c r="F14">
-        <v>16.11253077572428</v>
+        <v>16.11253077572445</v>
       </c>
       <c r="G14">
-        <v>14.16017735416435</v>
+        <v>14.16017735416446</v>
       </c>
       <c r="H14">
-        <v>13.1454321955872</v>
+        <v>13.14543219558726</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02308383172808703</v>
+        <v>0.02308383172796624</v>
       </c>
       <c r="D15">
-        <v>0.7998497237844617</v>
+        <v>0.7998497237848312</v>
       </c>
       <c r="E15">
-        <v>1.043496446860473</v>
+        <v>1.043496446860459</v>
       </c>
       <c r="F15">
-        <v>15.77727863412986</v>
+        <v>15.77727863412974</v>
       </c>
       <c r="G15">
-        <v>13.86397977236169</v>
+        <v>13.86397977236163</v>
       </c>
       <c r="H15">
-        <v>12.8707255944997</v>
+        <v>12.87072559449962</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9035514491426611</v>
+        <v>0.9035514491426682</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02040945626731272</v>
+        <v>0.0204094562676751</v>
       </c>
       <c r="D16">
-        <v>0.706141865197111</v>
+        <v>0.706141865197452</v>
       </c>
       <c r="E16">
-        <v>0.9211495771029092</v>
+        <v>0.9211495771029661</v>
       </c>
       <c r="F16">
         <v>14.03778493996441</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7975348796971033</v>
+        <v>0.7975348796971389</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01897631572677128</v>
+        <v>0.01897631572641245</v>
       </c>
       <c r="D17">
-        <v>0.655744289284371</v>
+        <v>0.6557442892843994</v>
       </c>
       <c r="E17">
         <v>0.8553534597684447</v>
       </c>
       <c r="F17">
-        <v>13.08979175622255</v>
+        <v>13.0897917562225</v>
       </c>
       <c r="G17">
-        <v>11.49233450684409</v>
+        <v>11.492334506844</v>
       </c>
       <c r="H17">
-        <v>10.67082245276794</v>
+        <v>10.67082245276785</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7405260779637288</v>
+        <v>0.7405260779637217</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01820690814258796</v>
+        <v>0.01820690814182413</v>
       </c>
       <c r="D18">
         <v>0.6286449230895812</v>
       </c>
       <c r="E18">
-        <v>0.8199731302077495</v>
+        <v>0.819973130207714</v>
       </c>
       <c r="F18">
-        <v>12.57657873505079</v>
+        <v>12.57657873505084</v>
       </c>
       <c r="G18">
-        <v>11.03995536183785</v>
+        <v>11.03995536183788</v>
       </c>
       <c r="H18">
-        <v>10.25114298953551</v>
+        <v>10.25114298953557</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7098719386156418</v>
+        <v>0.7098719386157057</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01795440009056648</v>
+        <v>0.01795440009060201</v>
       </c>
       <c r="D19">
-        <v>0.6197456682762947</v>
+        <v>0.6197456682763516</v>
       </c>
       <c r="E19">
-        <v>0.8083541684942048</v>
+        <v>0.8083541684941551</v>
       </c>
       <c r="F19">
-        <v>12.40752460326794</v>
+        <v>12.40752460326775</v>
       </c>
       <c r="G19">
-        <v>10.89097412736709</v>
+        <v>10.89097412736695</v>
       </c>
       <c r="H19">
-        <v>10.11292709096278</v>
+        <v>10.11292709096261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6998051802474023</v>
+        <v>0.6998051802473597</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01912282701792378</v>
+        <v>0.0191228270175543</v>
       </c>
       <c r="D20">
         <v>0.6609014284194075</v>
       </c>
       <c r="E20">
-        <v>0.8620863878038136</v>
+        <v>0.8620863878037781</v>
       </c>
       <c r="F20">
         <v>13.18718695108373</v>
       </c>
       <c r="G20">
-        <v>11.57820274314432</v>
+        <v>11.57820274314435</v>
       </c>
       <c r="H20">
-        <v>10.75048188641267</v>
+        <v>10.75048188641273</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7463596748402708</v>
+        <v>0.7463596748402779</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,22 +1137,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.023864514318376</v>
+        <v>0.02386451431862824</v>
       </c>
       <c r="D21">
-        <v>0.8271069799756958</v>
+        <v>0.8271069799754969</v>
       </c>
       <c r="E21">
-        <v>1.079089816297625</v>
+        <v>1.079089816297639</v>
       </c>
       <c r="F21">
         <v>16.27736953232551</v>
       </c>
       <c r="G21">
-        <v>14.30584360106951</v>
+        <v>14.30584360106954</v>
       </c>
       <c r="H21">
-        <v>13.28052564001015</v>
+        <v>13.28052564001013</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02820444811136724</v>
+        <v>0.02820444811112566</v>
       </c>
       <c r="D22">
-        <v>0.9776770768054632</v>
+        <v>0.9776770768056906</v>
       </c>
       <c r="E22">
-        <v>1.275821482952921</v>
+        <v>1.275821482952963</v>
       </c>
       <c r="F22">
-        <v>18.98908707684939</v>
+        <v>18.98908707684933</v>
       </c>
       <c r="G22">
         <v>16.70522210527375</v>
       </c>
       <c r="H22">
-        <v>15.50534998981155</v>
+        <v>15.50534998981152</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.104917745932688</v>
+        <v>1.104917745932681</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02570026510495182</v>
+        <v>0.02570026510473156</v>
       </c>
       <c r="D23">
-        <v>0.8910045270755234</v>
+        <v>0.891004527075296</v>
       </c>
       <c r="E23">
-        <v>1.162548432149819</v>
+        <v>1.162548432149805</v>
       </c>
       <c r="F23">
-        <v>17.43886591113369</v>
+        <v>17.43886591113346</v>
       </c>
       <c r="G23">
-        <v>15.33282880046531</v>
+        <v>15.33282880046519</v>
       </c>
       <c r="H23">
-        <v>14.23289453339925</v>
+        <v>14.2328945333991</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.006729345388109</v>
+        <v>1.006729345387981</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01905642415550801</v>
+        <v>0.01905642415590236</v>
       </c>
       <c r="D24">
         <v>0.6585642047539864</v>
       </c>
       <c r="E24">
-        <v>0.8590350177769892</v>
+        <v>0.8590350177769679</v>
       </c>
       <c r="F24">
-        <v>13.14305813224163</v>
+        <v>13.14305813224149</v>
       </c>
       <c r="G24">
-        <v>11.53929596533669</v>
+        <v>11.53929596533658</v>
       </c>
       <c r="H24">
-        <v>10.71438838625019</v>
+        <v>10.71438838625014</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01408999801636313</v>
+        <v>0.01408999801714472</v>
       </c>
       <c r="D25">
-        <v>0.4833190249953674</v>
+        <v>0.4833190249957511</v>
       </c>
       <c r="E25">
-        <v>0.6302010790424291</v>
+        <v>0.6302010790424006</v>
       </c>
       <c r="F25">
-        <v>9.78506647657025</v>
+        <v>9.785066476570307</v>
       </c>
       <c r="G25">
-        <v>8.581921282195225</v>
+        <v>8.581921282195196</v>
       </c>
       <c r="H25">
         <v>7.970533645862218</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.545453146040586</v>
+        <v>0.5454531460405576</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01114440208682055</v>
+        <v>0.01103150608308923</v>
       </c>
       <c r="D2">
-        <v>0.3792994349414869</v>
+        <v>0.3781001141360605</v>
       </c>
       <c r="E2">
-        <v>0.4943018620752042</v>
+        <v>0.4941984038659442</v>
       </c>
       <c r="F2">
-        <v>7.74882743815806</v>
+        <v>7.734208107907705</v>
       </c>
       <c r="G2">
-        <v>6.791422418934417</v>
+        <v>2.287898068197904</v>
       </c>
       <c r="H2">
-        <v>6.309091740655219</v>
+        <v>4.488621795491326</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.297162215392575</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4276977664476149</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4274112731873529</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009372614667121582</v>
+        <v>0.009278924090686758</v>
       </c>
       <c r="D3">
-        <v>0.3168968195740263</v>
+        <v>0.3159209992093679</v>
       </c>
       <c r="E3">
-        <v>0.4127360838853349</v>
+        <v>0.4126848738768345</v>
       </c>
       <c r="F3">
-        <v>6.513083734941517</v>
+        <v>6.501324910413331</v>
       </c>
       <c r="G3">
-        <v>5.705724797644308</v>
+        <v>1.919718355080022</v>
       </c>
       <c r="H3">
-        <v>5.301621196180832</v>
+        <v>3.774692688550488</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.292029780555879</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3570071938632751</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3567980664529244</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008355723894464262</v>
+        <v>0.008272929638597049</v>
       </c>
       <c r="D4">
-        <v>0.2811973132056806</v>
+        <v>0.2803438715428257</v>
       </c>
       <c r="E4">
-        <v>0.3660577107424103</v>
+        <v>0.3660290590042337</v>
       </c>
       <c r="F4">
-        <v>5.801598661646096</v>
+        <v>5.79138215991955</v>
       </c>
       <c r="G4">
-        <v>5.08091900732623</v>
+        <v>1.707612840240131</v>
       </c>
       <c r="H4">
-        <v>4.721838809585705</v>
+        <v>3.363968510243069</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.71350730179654</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3165442432708474</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3163730758096577</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007954973580044822</v>
+        <v>0.007876450826447723</v>
       </c>
       <c r="D5">
-        <v>0.267160543820836</v>
+        <v>0.2663542203323885</v>
       </c>
       <c r="E5">
-        <v>0.3477004952812237</v>
+        <v>0.3476793755607233</v>
       </c>
       <c r="F5">
-        <v>5.52097315776075</v>
+        <v>5.511345734522394</v>
       </c>
       <c r="G5">
-        <v>4.834537330227135</v>
+        <v>1.623921181604231</v>
       </c>
       <c r="H5">
-        <v>4.493214476788268</v>
+        <v>3.202041495414534</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.485364039500496</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3006292119633898</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3004718218947815</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007889150433026515</v>
+        <v>0.007811328106235749</v>
       </c>
       <c r="D6">
-        <v>0.2648570238253143</v>
+        <v>0.264058380818625</v>
       </c>
       <c r="E6">
-        <v>0.3446877526188956</v>
+        <v>0.3446677995464427</v>
       </c>
       <c r="F6">
-        <v>5.47487440210557</v>
+        <v>5.465342745237706</v>
       </c>
       <c r="G6">
-        <v>4.79406679707634</v>
+        <v>1.610171031433964</v>
       </c>
       <c r="H6">
-        <v>4.455660991984047</v>
+        <v>3.17544560275411</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.447888754739381</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2980171424520037</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2978619538020766</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008350268772446157</v>
+        <v>0.008267532743900574</v>
       </c>
       <c r="D7">
-        <v>0.2810061057624438</v>
+        <v>0.2801533096313165</v>
       </c>
       <c r="E7">
-        <v>0.3658076651119231</v>
+        <v>0.3657791209123715</v>
       </c>
       <c r="F7">
-        <v>5.797779290134002</v>
+        <v>5.787570877060432</v>
       </c>
       <c r="G7">
-        <v>5.077565493565487</v>
+        <v>1.706473914109154</v>
       </c>
       <c r="H7">
-        <v>4.718726976974352</v>
+        <v>3.361764367686192</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.710402075312231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3163274718256233</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3161564962756387</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01051582412070218</v>
+        <v>0.01040977614329464</v>
       </c>
       <c r="D8">
-        <v>0.3571382140668504</v>
+        <v>0.35601975007269</v>
       </c>
       <c r="E8">
-        <v>0.465338891655982</v>
+        <v>0.4652559734858741</v>
       </c>
       <c r="F8">
-        <v>7.311153517199187</v>
+        <v>7.297575372665392</v>
       </c>
       <c r="G8">
-        <v>6.406816418056508</v>
+        <v>2.15752273756442</v>
       </c>
       <c r="H8">
-        <v>5.952197936289593</v>
+        <v>4.235686519431255</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>5.941119658225489</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4025981597364705</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4023408482442079</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01560984736131132</v>
+        <v>0.01544690929835824</v>
       </c>
       <c r="D9">
-        <v>0.537011823250225</v>
+        <v>0.5351790632259679</v>
       </c>
       <c r="E9">
-        <v>0.7003249925433508</v>
+        <v>0.6999978868598262</v>
       </c>
       <c r="F9">
-        <v>10.82393951905377</v>
+        <v>10.80093768302694</v>
       </c>
       <c r="G9">
-        <v>9.496200990772138</v>
+        <v>3.203418653951303</v>
       </c>
       <c r="H9">
-        <v>8.818862622295228</v>
+        <v>6.267842993042876</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>8.800071471055588</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6062090842023906</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6056481934038516</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02058172911243616</v>
+        <v>0.02035862029726232</v>
       </c>
       <c r="D10">
-        <v>0.7121922336771433</v>
+        <v>0.7094805696455353</v>
       </c>
       <c r="E10">
-        <v>0.9290485800250678</v>
+        <v>0.9282395410434674</v>
       </c>
       <c r="F10">
-        <v>14.15101962479667</v>
+        <v>14.11583698824506</v>
       </c>
       <c r="G10">
-        <v>12.42827987051598</v>
+        <v>4.193456137065851</v>
       </c>
       <c r="H10">
-        <v>11.53905781524071</v>
+        <v>8.19627061809814</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.51027174413412</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8043791462564656</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8033118794621146</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02350505153055238</v>
+        <v>0.0232427302309155</v>
       </c>
       <c r="D11">
-        <v>0.8145623794992218</v>
+        <v>0.8111940993435098</v>
       </c>
       <c r="E11">
-        <v>1.062708208543185</v>
+        <v>1.061427429922119</v>
       </c>
       <c r="F11">
-        <v>16.04755032049593</v>
+        <v>16.00295900376187</v>
       </c>
       <c r="G11">
-        <v>14.10276030013628</v>
+        <v>4.757615295512608</v>
       </c>
       <c r="H11">
-        <v>13.09218191167085</v>
+        <v>9.296636220350962</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.05565892356782</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9202003426804808</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.918672708815194</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02479436474400032</v>
+        <v>0.02451333504951236</v>
       </c>
       <c r="D12">
-        <v>0.8595083821759317</v>
+        <v>0.8558006575524928</v>
       </c>
       <c r="E12">
-        <v>1.121406372046337</v>
+        <v>1.119850509159846</v>
       </c>
       <c r="F12">
-        <v>16.86826957973983</v>
+        <v>16.81873808218404</v>
       </c>
       <c r="G12">
-        <v>14.82818254749174</v>
+        <v>5.001667454226038</v>
       </c>
       <c r="H12">
-        <v>13.7649305786785</v>
+        <v>9.772922740192655</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.72434034799343</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9710709450121726</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.969282327391511</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02450588642637541</v>
+        <v>0.02422913513118985</v>
       </c>
       <c r="D13">
-        <v>0.8494637964676031</v>
+        <v>0.8458352430762091</v>
       </c>
       <c r="E13">
-        <v>1.108287266402243</v>
+        <v>1.106797279876503</v>
       </c>
       <c r="F13">
-        <v>16.6855072965206</v>
+        <v>16.63713199285905</v>
       </c>
       <c r="G13">
-        <v>14.66659761656535</v>
+        <v>4.947327194699483</v>
       </c>
       <c r="H13">
-        <v>13.61508413126552</v>
+        <v>9.66686020098868</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.57544606380816</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9597009212516312</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9579744406164679</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02360656689935325</v>
+        <v>0.02334280927912857</v>
       </c>
       <c r="D14">
-        <v>0.8181061177695312</v>
+        <v>0.8147123933814271</v>
       </c>
       <c r="E14">
-        <v>1.067335779348184</v>
+        <v>1.066035064391514</v>
       </c>
       <c r="F14">
-        <v>16.11253077572445</v>
+        <v>16.06757074884712</v>
       </c>
       <c r="G14">
-        <v>14.16017735416446</v>
+        <v>4.776940662570041</v>
       </c>
       <c r="H14">
-        <v>13.14543219558726</v>
+        <v>9.334345445277393</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.10860575610403</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.924210656658623</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.9226639638134628</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02308383172796624</v>
+        <v>0.02282740934136029</v>
       </c>
       <c r="D15">
-        <v>0.7998497237848312</v>
+        <v>0.7965848826760293</v>
       </c>
       <c r="E15">
-        <v>1.043496446860459</v>
+        <v>1.042295517560362</v>
       </c>
       <c r="F15">
-        <v>15.77727863412974</v>
+        <v>15.73418336814461</v>
       </c>
       <c r="G15">
-        <v>13.86397977236163</v>
+        <v>4.677231861682429</v>
       </c>
       <c r="H15">
-        <v>12.87072559449962</v>
+        <v>9.139796398451352</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.83543368209826</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9035514491426682</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.9021004131733577</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0204094562676751</v>
+        <v>0.02018854861970709</v>
       </c>
       <c r="D16">
-        <v>0.706141865197452</v>
+        <v>0.7034649669041926</v>
       </c>
       <c r="E16">
-        <v>0.9211495771029661</v>
+        <v>0.9203630480992047</v>
       </c>
       <c r="F16">
-        <v>14.03778493996441</v>
+        <v>14.00309404721224</v>
       </c>
       <c r="G16">
-        <v>12.32837923368007</v>
+        <v>4.159766707070503</v>
       </c>
       <c r="H16">
-        <v>11.44638823304211</v>
+        <v>8.130591397419238</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.41800616134756</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7975348796971389</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.7964901729231002</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01897631572641245</v>
+        <v>0.01877334467680569</v>
       </c>
       <c r="D17">
-        <v>0.6557442892843994</v>
+        <v>0.6533429047625248</v>
       </c>
       <c r="E17">
-        <v>0.8553534597684447</v>
+        <v>0.8547357237952014</v>
       </c>
       <c r="F17">
-        <v>13.0897917562225</v>
+        <v>13.05897134969138</v>
       </c>
       <c r="G17">
-        <v>11.492334506844</v>
+        <v>3.877704095662352</v>
       </c>
       <c r="H17">
-        <v>10.67082245276785</v>
+        <v>7.580843646104313</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.64561883281939</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7405260779637217</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7396531066810397</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01820690814182413</v>
+        <v>0.0180133201035666</v>
       </c>
       <c r="D18">
-        <v>0.6286449230895812</v>
+        <v>0.6263823413577825</v>
       </c>
       <c r="E18">
-        <v>0.819973130207714</v>
+        <v>0.8194337313171118</v>
       </c>
       <c r="F18">
-        <v>12.57657873505084</v>
+        <v>12.54768918324868</v>
       </c>
       <c r="G18">
-        <v>11.03995536183788</v>
+        <v>3.72499308339124</v>
       </c>
       <c r="H18">
-        <v>10.25114298953557</v>
+        <v>7.283321488181684</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.22752402427784</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7098719386157057</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7090805678355849</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01795440009060201</v>
+        <v>0.01776385802206804</v>
       </c>
       <c r="D19">
-        <v>0.6197456682763516</v>
+        <v>0.6175273898836622</v>
       </c>
       <c r="E19">
-        <v>0.8083541684941551</v>
+        <v>0.8078387942166501</v>
       </c>
       <c r="F19">
-        <v>12.40752460326775</v>
+        <v>12.37924847001895</v>
       </c>
       <c r="G19">
-        <v>10.89097412736695</v>
+        <v>3.674687880570531</v>
       </c>
       <c r="H19">
-        <v>10.11292709096261</v>
+        <v>7.185332247749415</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.08981141917454</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6998051802473597</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.6990391364884658</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0191228270175543</v>
+        <v>0.0189180509110507</v>
       </c>
       <c r="D20">
-        <v>0.6609014284194075</v>
+        <v>0.6584729308711417</v>
       </c>
       <c r="E20">
-        <v>0.8620863878037781</v>
+        <v>0.861452815352159</v>
       </c>
       <c r="F20">
-        <v>13.18718695108373</v>
+        <v>13.15598783404397</v>
       </c>
       <c r="G20">
-        <v>11.57820274314435</v>
+        <v>3.906684018153044</v>
       </c>
       <c r="H20">
-        <v>10.75048188641273</v>
+        <v>7.637313783803194</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.72496738122001</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7463596748402779</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7454703718474747</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02386451431862824</v>
+        <v>0.02359708030165208</v>
       </c>
       <c r="D21">
-        <v>0.8271069799754969</v>
+        <v>0.8236476652243425</v>
       </c>
       <c r="E21">
-        <v>1.079089816297639</v>
+        <v>1.077737184024443</v>
       </c>
       <c r="F21">
-        <v>16.27736953232551</v>
+        <v>16.23145779555728</v>
       </c>
       <c r="G21">
-        <v>14.30584360106954</v>
+        <v>4.825962399672562</v>
       </c>
       <c r="H21">
-        <v>13.28052564001013</v>
+        <v>9.430005115410609</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.24291585369937</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9343969780866033</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9328007676965768</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02820444811112566</v>
+        <v>0.027867429518313</v>
       </c>
       <c r="D22">
-        <v>0.9776770768056906</v>
+        <v>0.9728473462589875</v>
       </c>
       <c r="E22">
-        <v>1.275821482952963</v>
+        <v>1.273237291673752</v>
       </c>
       <c r="F22">
-        <v>18.98908707684933</v>
+        <v>18.92296791217547</v>
       </c>
       <c r="G22">
-        <v>16.70522210527375</v>
+        <v>5.631776338308157</v>
       </c>
       <c r="H22">
-        <v>15.50534998981152</v>
+        <v>11.00330154835567</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.45108382976596</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.104917745932681</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.102178561184409</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02570026510473156</v>
+        <v>0.02540540640304556</v>
       </c>
       <c r="D23">
-        <v>0.891004527075296</v>
+        <v>0.8870345529401504</v>
       </c>
       <c r="E23">
-        <v>1.162548432149805</v>
+        <v>1.160767405360275</v>
       </c>
       <c r="F23">
-        <v>17.43886591113346</v>
+        <v>17.38548911223103</v>
       </c>
       <c r="G23">
-        <v>15.33282880046519</v>
+        <v>5.171290676837515</v>
       </c>
       <c r="H23">
-        <v>14.2328945333991</v>
+        <v>10.10404458664621</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.1891364602738</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.006729345387981</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.004729772184334</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01905642415590236</v>
+        <v>0.01885246690513398</v>
       </c>
       <c r="D24">
-        <v>0.6585642047539864</v>
+        <v>0.6561480235686474</v>
       </c>
       <c r="E24">
-        <v>0.8590350177769679</v>
+        <v>0.8584086606023575</v>
       </c>
       <c r="F24">
-        <v>13.14305813224149</v>
+        <v>13.11203110953301</v>
       </c>
       <c r="G24">
-        <v>11.53929596533658</v>
+        <v>3.893553530947401</v>
       </c>
       <c r="H24">
-        <v>10.71438838625014</v>
+        <v>7.611727413366054</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.68901515720216</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7437158795827514</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7428340111409213</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01408999801714472</v>
+        <v>0.01394440677546882</v>
       </c>
       <c r="D25">
-        <v>0.4833190249957511</v>
+        <v>0.4817147847112864</v>
       </c>
       <c r="E25">
-        <v>0.6302010790424006</v>
+        <v>0.6299672821374358</v>
       </c>
       <c r="F25">
-        <v>9.785066476570307</v>
+        <v>9.765132405413112</v>
       </c>
       <c r="G25">
-        <v>8.581921282195196</v>
+        <v>2.89419862554854</v>
       </c>
       <c r="H25">
-        <v>7.970533645862218</v>
+        <v>5.666381721834654</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.954255335814082</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5454531460405576</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.5450004717724397</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01103150608308923</v>
+        <v>0.1842396061083491</v>
       </c>
       <c r="D2">
-        <v>0.3781001141360605</v>
+        <v>0.362288425432908</v>
       </c>
       <c r="E2">
-        <v>0.4941984038659442</v>
+        <v>0.03012999771038949</v>
       </c>
       <c r="F2">
-        <v>7.734208107907705</v>
+        <v>14.51958505688771</v>
       </c>
       <c r="G2">
-        <v>2.287898068197904</v>
+        <v>0.000623994084273735</v>
       </c>
       <c r="H2">
-        <v>4.488621795491326</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.297162215392575</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4226662345353702</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.10922326324115</v>
       </c>
       <c r="L2">
-        <v>0.4274112731873529</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.5797525886340935</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009278924090686758</v>
+        <v>0.1484317075329358</v>
       </c>
       <c r="D3">
-        <v>0.3159209992093679</v>
+        <v>0.2815248292136516</v>
       </c>
       <c r="E3">
-        <v>0.4126848738768345</v>
+        <v>0.02761064037267857</v>
       </c>
       <c r="F3">
-        <v>6.501324910413331</v>
+        <v>11.82271891677732</v>
       </c>
       <c r="G3">
-        <v>1.919718355080022</v>
+        <v>0.0006704904009131218</v>
       </c>
       <c r="H3">
-        <v>3.774692688550488</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.292029780555879</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.348890049915525</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.38751979304553</v>
       </c>
       <c r="L3">
-        <v>0.3567980664529244</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.6263044960776654</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008272929638597049</v>
+        <v>0.1294392648844536</v>
       </c>
       <c r="D4">
-        <v>0.2803438715428257</v>
+        <v>0.2405290149019237</v>
       </c>
       <c r="E4">
-        <v>0.3660290590042337</v>
+        <v>0.02622507495598825</v>
       </c>
       <c r="F4">
-        <v>5.79138215991955</v>
+        <v>10.43614922731643</v>
       </c>
       <c r="G4">
-        <v>1.707612840240131</v>
+        <v>0.0006967871979325672</v>
       </c>
       <c r="H4">
-        <v>3.363968510243069</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.71350730179654</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.310552442801395</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.92329846132313</v>
       </c>
       <c r="L4">
-        <v>0.3163730758096577</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.6547658776467102</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007876450826447723</v>
+        <v>0.1221972669596312</v>
       </c>
       <c r="D5">
-        <v>0.2663542203323885</v>
+        <v>0.225242589109655</v>
       </c>
       <c r="E5">
-        <v>0.3476793755607233</v>
+        <v>0.02568897048248608</v>
       </c>
       <c r="F5">
-        <v>5.511345734522394</v>
+        <v>9.916389363617327</v>
       </c>
       <c r="G5">
-        <v>1.623921181604231</v>
+        <v>0.0007071748793637376</v>
       </c>
       <c r="H5">
-        <v>3.202041495414534</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.485364039500496</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2961029025960045</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.36107055567888</v>
       </c>
       <c r="L5">
-        <v>0.3004718218947815</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.6664589201268711</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007811328106235749</v>
+        <v>0.1210196630235885</v>
       </c>
       <c r="D6">
-        <v>0.264058380818625</v>
+        <v>0.2227752507020284</v>
       </c>
       <c r="E6">
-        <v>0.3446677995464427</v>
+        <v>0.02560142978309266</v>
       </c>
       <c r="F6">
-        <v>5.465342745237706</v>
+        <v>9.832367786776132</v>
       </c>
       <c r="G6">
-        <v>1.610171031433964</v>
+        <v>0.0007088846830860529</v>
       </c>
       <c r="H6">
-        <v>3.17544560275411</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.447888754739381</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2937628369607523</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.26944105921777</v>
       </c>
       <c r="L6">
-        <v>0.2978619538020766</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.6684086623453283</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008267532743900574</v>
+        <v>0.1293398255707814</v>
       </c>
       <c r="D7">
-        <v>0.2801533096313165</v>
+        <v>0.2403178111119786</v>
       </c>
       <c r="E7">
-        <v>0.3657791209123715</v>
+        <v>0.0262177409319051</v>
       </c>
       <c r="F7">
-        <v>5.787570877060432</v>
+        <v>10.42897762673186</v>
       </c>
       <c r="G7">
-        <v>1.706473914109154</v>
+        <v>0.0006969283930852295</v>
       </c>
       <c r="H7">
-        <v>3.361764367686192</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.710402075312231</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3103533710382749</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.9155933131172</v>
       </c>
       <c r="L7">
-        <v>0.3161564962756387</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.6549230757427011</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01040977614329464</v>
+        <v>0.1710635657816795</v>
       </c>
       <c r="D8">
-        <v>0.35601975007269</v>
+        <v>0.3320501701022067</v>
       </c>
       <c r="E8">
-        <v>0.4652559734858741</v>
+        <v>0.02921807099071927</v>
       </c>
       <c r="F8">
-        <v>7.297575372665392</v>
+        <v>13.51549665435471</v>
       </c>
       <c r="G8">
-        <v>2.15752273756442</v>
+        <v>0.0006406874912143258</v>
       </c>
       <c r="H8">
-        <v>4.235686519431255</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.941119658225489</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3953128468143632</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.11349528573624</v>
       </c>
       <c r="L8">
-        <v>0.4023408482442079</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.5959345469292003</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01544690929835824</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D9">
-        <v>0.5351790632259679</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E9">
-        <v>0.6999978868598262</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F9">
-        <v>10.80093768302694</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G9">
-        <v>3.203418653951303</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H9">
-        <v>6.267842993042876</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.800071471055588</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L9">
-        <v>0.6056481934038516</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02035862029726232</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D10">
-        <v>0.7094805696455353</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E10">
-        <v>0.9282395410434674</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F10">
-        <v>14.11583698824506</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G10">
-        <v>4.193456137065851</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H10">
-        <v>8.19627061809814</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>11.51027174413412</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L10">
-        <v>0.8033118794621146</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0232427302309155</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D11">
-        <v>0.8111940993435098</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E11">
-        <v>1.061427429922119</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F11">
-        <v>16.00295900376187</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G11">
-        <v>4.757615295512608</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H11">
-        <v>9.296636220350962</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.05565892356782</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L11">
-        <v>0.918672708815194</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02451333504951236</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D12">
-        <v>0.8558006575524928</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E12">
-        <v>1.119850509159846</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F12">
-        <v>16.81873808218404</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G12">
-        <v>5.001667454226038</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H12">
-        <v>9.772922740192655</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.72434034799343</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L12">
-        <v>0.969282327391511</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02422913513118985</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D13">
-        <v>0.8458352430762091</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E13">
-        <v>1.106797279876503</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F13">
-        <v>16.63713199285905</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G13">
-        <v>4.947327194699483</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H13">
-        <v>9.66686020098868</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.57544606380816</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L13">
-        <v>0.9579744406164679</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02334280927912857</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D14">
-        <v>0.8147123933814271</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E14">
-        <v>1.066035064391514</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F14">
-        <v>16.06757074884712</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G14">
-        <v>4.776940662570041</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H14">
-        <v>9.334345445277393</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.10860575610403</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L14">
-        <v>0.9226639638134628</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02282740934136029</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D15">
-        <v>0.7965848826760293</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E15">
-        <v>1.042295517560362</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F15">
-        <v>15.73418336814461</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G15">
-        <v>4.677231861682429</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H15">
-        <v>9.139796398451352</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>12.83543368209826</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L15">
-        <v>0.9021004131733577</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02018854861970709</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D16">
-        <v>0.7034649669041926</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E16">
-        <v>0.9203630480992047</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F16">
-        <v>14.00309404721224</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G16">
-        <v>4.159766707070503</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H16">
-        <v>8.130591397419238</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>11.41800616134756</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L16">
-        <v>0.7964901729231002</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01877334467680569</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D17">
-        <v>0.6533429047625248</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E17">
-        <v>0.8547357237952014</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F17">
-        <v>13.05897134969138</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G17">
-        <v>3.877704095662352</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H17">
-        <v>7.580843646104313</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10.64561883281939</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L17">
-        <v>0.7396531066810397</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0180133201035666</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D18">
-        <v>0.6263823413577825</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E18">
-        <v>0.8194337313171118</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F18">
-        <v>12.54768918324868</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G18">
-        <v>3.72499308339124</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H18">
-        <v>7.283321488181684</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>10.22752402427784</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L18">
-        <v>0.7090805678355849</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01776385802206804</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D19">
-        <v>0.6175273898836622</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E19">
-        <v>0.8078387942166501</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F19">
-        <v>12.37924847001895</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G19">
-        <v>3.674687880570531</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H19">
-        <v>7.185332247749415</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10.08981141917454</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L19">
-        <v>0.6990391364884658</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0189180509110507</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D20">
-        <v>0.6584729308711417</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E20">
-        <v>0.861452815352159</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F20">
-        <v>13.15598783404397</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G20">
-        <v>3.906684018153044</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H20">
-        <v>7.637313783803194</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.72496738122001</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L20">
-        <v>0.7454703718474747</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02359708030165208</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D21">
-        <v>0.8236476652243425</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E21">
-        <v>1.077737184024443</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F21">
-        <v>16.23145779555728</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G21">
-        <v>4.825962399672562</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H21">
-        <v>9.430005115410609</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13.24291585369937</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L21">
-        <v>0.9328007676965768</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.027867429518313</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D22">
-        <v>0.9728473462589875</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E22">
-        <v>1.273237291673752</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F22">
-        <v>18.92296791217547</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G22">
-        <v>5.631776338308157</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H22">
-        <v>11.00330154835567</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>15.45108382976596</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L22">
-        <v>1.102178561184409</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02540540640304556</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D23">
-        <v>0.8870345529401504</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E23">
-        <v>1.160767405360275</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F23">
-        <v>17.38548911223103</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G23">
-        <v>5.171290676837515</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H23">
-        <v>10.10404458664621</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.1891364602738</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L23">
-        <v>1.004729772184334</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01885246690513398</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D24">
-        <v>0.6561480235686474</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E24">
-        <v>0.8584086606023575</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F24">
-        <v>13.11203110953301</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G24">
-        <v>3.893553530947401</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H24">
-        <v>7.611727413366054</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10.68901515720216</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L24">
-        <v>0.7428340111409213</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01394440677546882</v>
+        <v>0.3198768328032742</v>
       </c>
       <c r="D25">
-        <v>0.4817147847112864</v>
+        <v>0.7088743918313867</v>
       </c>
       <c r="E25">
-        <v>0.6299672821374358</v>
+        <v>0.03836795146097316</v>
       </c>
       <c r="F25">
-        <v>9.765132405413112</v>
+        <v>25.51874834264169</v>
       </c>
       <c r="G25">
-        <v>2.89419862554854</v>
+        <v>0.0004720780886767782</v>
       </c>
       <c r="H25">
-        <v>5.666381721834654</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.954255335814082</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7148375161585392</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>25.01205722661996</v>
       </c>
       <c r="L25">
-        <v>0.5450004717724397</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.455277556710584</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1842396061083491</v>
+        <v>0.2716769923297448</v>
       </c>
       <c r="D2">
-        <v>0.362288425432908</v>
+        <v>0.04290672399945095</v>
       </c>
       <c r="E2">
-        <v>0.03012999771038949</v>
+        <v>0.08289824026102011</v>
       </c>
       <c r="F2">
-        <v>14.51958505688771</v>
+        <v>0.7266188551538377</v>
       </c>
       <c r="G2">
-        <v>0.000623994084273735</v>
+        <v>0.0008007995157933433</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4226662345353702</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.10922326324115</v>
+        <v>2.817585394960162</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05282979247013486</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.690978983405742</v>
       </c>
       <c r="N2">
-        <v>0.5797525886340935</v>
+        <v>0.8066735547476682</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.233851577737909</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1484317075329358</v>
+        <v>0.2482498091131049</v>
       </c>
       <c r="D3">
-        <v>0.2815248292136516</v>
+        <v>0.04045121963673992</v>
       </c>
       <c r="E3">
-        <v>0.02761064037267857</v>
+        <v>0.07772476203356149</v>
       </c>
       <c r="F3">
-        <v>11.82271891677732</v>
+        <v>0.6775545143310993</v>
       </c>
       <c r="G3">
-        <v>0.0006704904009131218</v>
+        <v>0.0008055379162883357</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.348890049915525</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.38751979304553</v>
+        <v>2.447223685865879</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05134989763488207</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.602862812695534</v>
       </c>
       <c r="N3">
-        <v>0.6263044960776654</v>
+        <v>0.8343809488130631</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.122642357105519</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1294392648844536</v>
+        <v>0.2342348014473998</v>
       </c>
       <c r="D4">
-        <v>0.2405290149019237</v>
+        <v>0.03893874893580929</v>
       </c>
       <c r="E4">
-        <v>0.02622507495598825</v>
+        <v>0.07467919839634973</v>
       </c>
       <c r="F4">
-        <v>10.43614922731643</v>
+        <v>0.6489544520265369</v>
       </c>
       <c r="G4">
-        <v>0.0006967871979325672</v>
+        <v>0.0008085421158085789</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.310552442801395</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10.92329846132313</v>
+        <v>2.220512475962863</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05053469254612963</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5491222720136903</v>
       </c>
       <c r="N4">
-        <v>0.6547658776467102</v>
+        <v>0.8524959911236536</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.059467840446814</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1221972669596312</v>
+        <v>0.2286101647026157</v>
       </c>
       <c r="D5">
-        <v>0.225242589109655</v>
+        <v>0.03832112751274508</v>
       </c>
       <c r="E5">
-        <v>0.02568897048248608</v>
+        <v>0.07346911464383865</v>
       </c>
       <c r="F5">
-        <v>9.916389363617327</v>
+        <v>0.6376587998668057</v>
       </c>
       <c r="G5">
-        <v>0.0007071748793637376</v>
+        <v>0.0008097906897318999</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2961029025960045</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>10.36107055567888</v>
+        <v>2.128260244888565</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05022484269125727</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5273018964609619</v>
       </c>
       <c r="N5">
-        <v>0.6664589201268711</v>
+        <v>0.8601471500215894</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.034931287012625</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1210196630235885</v>
+        <v>0.2276812507053592</v>
       </c>
       <c r="D6">
-        <v>0.2227752507020284</v>
+        <v>0.03821849277992939</v>
       </c>
       <c r="E6">
-        <v>0.02560142978309266</v>
+        <v>0.0732699996619175</v>
       </c>
       <c r="F6">
-        <v>9.832367786776132</v>
+        <v>0.6358041625875117</v>
       </c>
       <c r="G6">
-        <v>0.0007088846830860529</v>
+        <v>0.0008099994986478147</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2937628369607523</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>10.26944105921777</v>
+        <v>2.112948839427901</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05017471005245611</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.523683094585131</v>
       </c>
       <c r="N6">
-        <v>0.6684086623453283</v>
+        <v>0.8614336455665565</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.030927775094426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1293398255707814</v>
+        <v>0.2341586030804734</v>
       </c>
       <c r="D7">
-        <v>0.2403178111119786</v>
+        <v>0.03893042474188846</v>
       </c>
       <c r="E7">
-        <v>0.0262177409319051</v>
+        <v>0.07466275570147118</v>
       </c>
       <c r="F7">
-        <v>10.42897762673186</v>
+        <v>0.6488006923544347</v>
       </c>
       <c r="G7">
-        <v>0.0006969283930852295</v>
+        <v>0.0008085588552738607</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3103533710382749</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>10.9155933131172</v>
+        <v>2.219267836440878</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05053042476747649</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5488276889034296</v>
       </c>
       <c r="N7">
-        <v>0.6549230757427011</v>
+        <v>0.8525980980046555</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.059132141126781</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1710635657816795</v>
+        <v>0.2635187332465563</v>
       </c>
       <c r="D8">
-        <v>0.3320501701022067</v>
+        <v>0.04206100963495629</v>
       </c>
       <c r="E8">
-        <v>0.02921807099071927</v>
+        <v>0.08108604747184955</v>
       </c>
       <c r="F8">
-        <v>13.51549665435471</v>
+        <v>0.7093696248701775</v>
       </c>
       <c r="G8">
-        <v>0.0006406874912143258</v>
+        <v>0.0008024139488346209</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3953128468143632</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.11349528573624</v>
+        <v>2.68971619762911</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05229941687822048</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.660513690305109</v>
       </c>
       <c r="N8">
-        <v>0.5959345469292003</v>
+        <v>0.8159931877308466</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.194398694982539</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3198768328032742</v>
+        <v>0.32432935069059</v>
       </c>
       <c r="D9">
-        <v>0.7088743918313867</v>
+        <v>0.04816631470691846</v>
       </c>
       <c r="E9">
-        <v>0.03836795146097316</v>
+        <v>0.09481436016320188</v>
       </c>
       <c r="F9">
-        <v>25.51874834264169</v>
+        <v>0.8414325311668023</v>
       </c>
       <c r="G9">
-        <v>0.0004720780886767782</v>
+        <v>0.0007910920089822137</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>25.01205722661996</v>
+        <v>3.619722434041819</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.056565213467902</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.8829998855256136</v>
       </c>
       <c r="N9">
-        <v>0.455277556710584</v>
+        <v>0.7533487556680143</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.503896642856574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3198768328032742</v>
+        <v>0.3714362420851671</v>
       </c>
       <c r="D10">
-        <v>0.7088743918313867</v>
+        <v>0.05263831172806732</v>
       </c>
       <c r="E10">
-        <v>0.03836795146097316</v>
+        <v>0.1057300520074271</v>
       </c>
       <c r="F10">
-        <v>25.51874834264169</v>
+        <v>0.948325106302633</v>
       </c>
       <c r="G10">
-        <v>0.0004720780886767782</v>
+        <v>0.0007831819826555947</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.01205722661996</v>
+        <v>4.310551700430608</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06026757170308628</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.049471175979974</v>
       </c>
       <c r="N10">
-        <v>0.455277556710584</v>
+        <v>0.7134717056155679</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.763792166667656</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3198768328032742</v>
+        <v>0.3935041384003171</v>
       </c>
       <c r="D11">
-        <v>0.7088743918313867</v>
+        <v>0.05467160760701262</v>
       </c>
       <c r="E11">
-        <v>0.03836795146097316</v>
+        <v>0.11090959732066</v>
       </c>
       <c r="F11">
-        <v>25.51874834264169</v>
+        <v>0.9995216158138476</v>
       </c>
       <c r="G11">
-        <v>0.0004720780886767782</v>
+        <v>0.0007796636287716874</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>25.01205722661996</v>
+        <v>4.62720206028024</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06209518501040634</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.12607474305733</v>
       </c>
       <c r="N11">
-        <v>0.455277556710584</v>
+        <v>0.6968048966956388</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.890421834228675</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3198768328032742</v>
+        <v>0.4019624488462625</v>
       </c>
       <c r="D12">
-        <v>0.7088743918313867</v>
+        <v>0.05544157629764612</v>
       </c>
       <c r="E12">
-        <v>0.03836795146097316</v>
+        <v>0.1129047536897332</v>
       </c>
       <c r="F12">
-        <v>25.51874834264169</v>
+        <v>1.019316607741928</v>
       </c>
       <c r="G12">
-        <v>0.0004720780886767782</v>
+        <v>0.0007783420621108793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.01205722661996</v>
+        <v>4.747518474541721</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06280967996203302</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.155227865814553</v>
       </c>
       <c r="N12">
-        <v>0.455277556710584</v>
+        <v>0.6907182574554867</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.939702817692023</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3198768328032742</v>
+        <v>0.4001361131633701</v>
       </c>
       <c r="D13">
-        <v>0.7088743918313867</v>
+        <v>0.05527574696843374</v>
       </c>
       <c r="E13">
-        <v>0.03836795146097316</v>
+        <v>0.1124735083494741</v>
       </c>
       <c r="F13">
-        <v>25.51874834264169</v>
+        <v>1.015034612509666</v>
       </c>
       <c r="G13">
-        <v>0.0004720780886767782</v>
+        <v>0.0007786262190189552</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>25.01205722661996</v>
+        <v>4.721586960490527</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0626547734588776</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.148942446222719</v>
       </c>
       <c r="N13">
-        <v>0.455277556710584</v>
+        <v>0.6920189143481537</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.929028132434524</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3198768328032742</v>
+        <v>0.3941979117870744</v>
       </c>
       <c r="D14">
-        <v>0.7088743918313867</v>
+        <v>0.05473495237974646</v>
       </c>
       <c r="E14">
-        <v>0.03836795146097316</v>
+        <v>0.1110730450175268</v>
       </c>
       <c r="F14">
-        <v>25.51874834264169</v>
+        <v>1.001141754247726</v>
       </c>
       <c r="G14">
-        <v>0.0004720780886767782</v>
+        <v>0.0007795546915286766</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>25.01205722661996</v>
+        <v>4.637092002754684</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06215350683755716</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.128470165849919</v>
       </c>
       <c r="N14">
-        <v>0.455277556710584</v>
+        <v>0.6962995643525787</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.894448845491041</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3198768328032742</v>
+        <v>0.3905741386188595</v>
       </c>
       <c r="D15">
-        <v>0.7088743918313867</v>
+        <v>0.05440370540836881</v>
       </c>
       <c r="E15">
-        <v>0.03836795146097316</v>
+        <v>0.110219712803854</v>
       </c>
       <c r="F15">
-        <v>25.51874834264169</v>
+        <v>0.9926863005905915</v>
       </c>
       <c r="G15">
-        <v>0.0004720780886767782</v>
+        <v>0.0007801247857671667</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>25.01205722661996</v>
+        <v>4.585391513168588</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06184944183789653</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.115949786045114</v>
       </c>
       <c r="N15">
-        <v>0.455277556710584</v>
+        <v>0.6989512495197658</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.87344487745051</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3198768328032742</v>
+        <v>0.3700077283519079</v>
       </c>
       <c r="D16">
-        <v>0.7088743918313867</v>
+        <v>0.05250542283541648</v>
       </c>
       <c r="E16">
-        <v>0.03836795146097316</v>
+        <v>0.1053961134507553</v>
       </c>
       <c r="F16">
-        <v>25.51874834264169</v>
+        <v>0.9450342273584766</v>
       </c>
       <c r="G16">
-        <v>0.0004720780886767782</v>
+        <v>0.0007834134623031549</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>25.01205722661996</v>
+        <v>4.289911291448902</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06015116868102055</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.044484163012484</v>
       </c>
       <c r="N16">
-        <v>0.455277556710584</v>
+        <v>0.7145916452222778</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.755695797907663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3198768328032742</v>
+        <v>0.3575612446746845</v>
       </c>
       <c r="D17">
-        <v>0.7088743918313867</v>
+        <v>0.051340725283886</v>
       </c>
       <c r="E17">
-        <v>0.03836795146097316</v>
+        <v>0.1024938539986344</v>
       </c>
       <c r="F17">
-        <v>25.51874834264169</v>
+        <v>0.9164859214889134</v>
       </c>
       <c r="G17">
-        <v>0.0004720780886767782</v>
+        <v>0.000785450928343739</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25.01205722661996</v>
+        <v>4.109299562881063</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0591472933368955</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.0008795659488</v>
       </c>
       <c r="N17">
-        <v>0.455277556710584</v>
+        <v>0.7245727322625299</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.685695427543976</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3198768328032742</v>
+        <v>0.3504618438246041</v>
       </c>
       <c r="D18">
-        <v>0.7088743918313867</v>
+        <v>0.05067071415236768</v>
       </c>
       <c r="E18">
-        <v>0.03836795146097316</v>
+        <v>0.100844494364452</v>
       </c>
       <c r="F18">
-        <v>25.51874834264169</v>
+        <v>0.9003051703713396</v>
       </c>
       <c r="G18">
-        <v>0.0004720780886767782</v>
+        <v>0.000786630398270917</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.01205722661996</v>
+        <v>4.005637136338066</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0585832716072936</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9758804661680998</v>
       </c>
       <c r="N18">
-        <v>0.455277556710584</v>
+        <v>0.7304514524680883</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.646216091096818</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3198768328032742</v>
+        <v>0.3480680389554607</v>
       </c>
       <c r="D19">
-        <v>0.7088743918313867</v>
+        <v>0.05044383699551958</v>
       </c>
       <c r="E19">
-        <v>0.03836795146097316</v>
+        <v>0.1002893869760477</v>
       </c>
       <c r="F19">
-        <v>25.51874834264169</v>
+        <v>0.8948666584377776</v>
       </c>
       <c r="G19">
-        <v>0.0004720780886767782</v>
+        <v>0.0007870310688864076</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.01205722661996</v>
+        <v>3.970574849337538</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05839454926761434</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9674295727048232</v>
       </c>
       <c r="N19">
-        <v>0.455277556710584</v>
+        <v>0.7324651892264384</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.632980026958165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3198768328032742</v>
+        <v>0.3588799687071003</v>
       </c>
       <c r="D20">
-        <v>0.7088743918313867</v>
+        <v>0.05146471944389219</v>
       </c>
       <c r="E20">
-        <v>0.03836795146097316</v>
+        <v>0.102800719383719</v>
       </c>
       <c r="F20">
-        <v>25.51874834264169</v>
+        <v>0.9194998842564388</v>
       </c>
       <c r="G20">
-        <v>0.0004720780886767782</v>
+        <v>0.0007852332579835197</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25.01205722661996</v>
+        <v>4.128502703813751</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.05925276015482694</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.005512821142979</v>
       </c>
       <c r="N20">
-        <v>0.455277556710584</v>
+        <v>0.7234958704098915</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.693065201963861</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3198768328032742</v>
+        <v>0.3959392636897974</v>
       </c>
       <c r="D21">
-        <v>0.7088743918313867</v>
+        <v>0.05489379544973616</v>
       </c>
       <c r="E21">
-        <v>0.03836795146097316</v>
+        <v>0.1114834531921112</v>
       </c>
       <c r="F21">
-        <v>25.51874834264169</v>
+        <v>1.005211029678776</v>
       </c>
       <c r="G21">
-        <v>0.0004720780886767782</v>
+        <v>0.0007792816908609095</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25.01205722661996</v>
+        <v>4.661898611956985</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06230011753125453</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.134479273983729</v>
       </c>
       <c r="N21">
-        <v>0.455277556710584</v>
+        <v>0.695036027497288</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.904568536185081</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3198768328032742</v>
+        <v>0.4207574574844841</v>
       </c>
       <c r="D22">
-        <v>0.7088743918313867</v>
+        <v>0.05713500070482525</v>
       </c>
       <c r="E22">
-        <v>0.03836795146097316</v>
+        <v>0.1173565659698639</v>
       </c>
       <c r="F22">
-        <v>25.51874834264169</v>
+        <v>1.063626380343194</v>
       </c>
       <c r="G22">
-        <v>0.0004720780886767782</v>
+        <v>0.00077545431620737</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.01205722661996</v>
+        <v>5.012914626038537</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06442335084586404</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.219621688241659</v>
       </c>
       <c r="N22">
-        <v>0.455277556710584</v>
+        <v>0.6777524165221394</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.050608573951905</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3198768328032742</v>
+        <v>0.4074533616620784</v>
       </c>
       <c r="D23">
-        <v>0.7088743918313867</v>
+        <v>0.0559387621950691</v>
       </c>
       <c r="E23">
-        <v>0.03836795146097316</v>
+        <v>0.1142027576299753</v>
       </c>
       <c r="F23">
-        <v>25.51874834264169</v>
+        <v>1.032216071101146</v>
       </c>
       <c r="G23">
-        <v>0.0004720780886767782</v>
+        <v>0.0007774916154859556</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>25.01205722661996</v>
+        <v>4.825327420219992</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06327746582650562</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.174094529536873</v>
       </c>
       <c r="N23">
-        <v>0.455277556710584</v>
+        <v>0.6868520302952987</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.9719069947121</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3198768328032742</v>
+        <v>0.3582835991041975</v>
       </c>
       <c r="D24">
-        <v>0.7088743918313867</v>
+        <v>0.05140866297560365</v>
       </c>
       <c r="E24">
-        <v>0.03836795146097316</v>
+        <v>0.1026619260014385</v>
       </c>
       <c r="F24">
-        <v>25.51874834264169</v>
+        <v>0.9181365517659827</v>
       </c>
       <c r="G24">
-        <v>0.0004720780886767782</v>
+        <v>0.0007853316413993069</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>25.01205722661996</v>
+        <v>4.119820427671868</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.05920503787607601</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.003417910601989</v>
       </c>
       <c r="N24">
-        <v>0.455277556710584</v>
+        <v>0.7239822831098195</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.689730953759607</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3198768328032742</v>
+        <v>0.3074869046166953</v>
       </c>
       <c r="D25">
-        <v>0.7088743918313867</v>
+        <v>0.04651760656685155</v>
       </c>
       <c r="E25">
-        <v>0.03836795146097316</v>
+        <v>0.09096550380686708</v>
       </c>
       <c r="F25">
-        <v>25.51874834264169</v>
+        <v>0.8041089595130586</v>
       </c>
       <c r="G25">
-        <v>0.0004720780886767782</v>
+        <v>0.0007940804857820796</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7148375161585392</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>25.01205722661996</v>
+        <v>3.367036398692335</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05531774246928833</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8223516705360794</v>
       </c>
       <c r="N25">
-        <v>0.455277556710584</v>
+        <v>0.7692605150300125</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.414885920502456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2716769923297448</v>
+        <v>0.3741247334384212</v>
       </c>
       <c r="D2">
-        <v>0.04290672399945095</v>
+        <v>0.04649824640627287</v>
       </c>
       <c r="E2">
-        <v>0.08289824026102011</v>
+        <v>0.1456202660292512</v>
       </c>
       <c r="F2">
-        <v>0.7266188551538377</v>
+        <v>1.108027689185711</v>
       </c>
       <c r="G2">
-        <v>0.0008007995157933433</v>
+        <v>0.00246990454627088</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.817585394960162</v>
+        <v>1.13387091036364</v>
       </c>
       <c r="L2">
-        <v>0.05282979247013486</v>
+        <v>0.1187981008196708</v>
       </c>
       <c r="M2">
-        <v>0.690978983405742</v>
+        <v>0.414265231808109</v>
       </c>
       <c r="N2">
-        <v>0.8066735547476682</v>
+        <v>1.432106154888601</v>
       </c>
       <c r="O2">
-        <v>2.233851577737909</v>
+        <v>3.976110968011028</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2482498091131049</v>
+        <v>0.3704893607892217</v>
       </c>
       <c r="D3">
-        <v>0.04045121963673992</v>
+        <v>0.0456094257289763</v>
       </c>
       <c r="E3">
-        <v>0.07772476203356149</v>
+        <v>0.1453094501481331</v>
       </c>
       <c r="F3">
-        <v>0.6775545143310993</v>
+        <v>1.105147322339121</v>
       </c>
       <c r="G3">
-        <v>0.0008055379162883357</v>
+        <v>0.002473073296272595</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.447223685865879</v>
+        <v>1.025899616534019</v>
       </c>
       <c r="L3">
-        <v>0.05134989763488207</v>
+        <v>0.1192635899362919</v>
       </c>
       <c r="M3">
-        <v>0.602862812695534</v>
+        <v>0.3906776901091931</v>
       </c>
       <c r="N3">
-        <v>0.8343809488130631</v>
+        <v>1.44470177941929</v>
       </c>
       <c r="O3">
-        <v>2.122642357105519</v>
+        <v>3.982991701570995</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2342348014473998</v>
+        <v>0.3684495232528775</v>
       </c>
       <c r="D4">
-        <v>0.03893874893580929</v>
+        <v>0.04505973823963672</v>
       </c>
       <c r="E4">
-        <v>0.07467919839634973</v>
+        <v>0.1451902544362795</v>
       </c>
       <c r="F4">
-        <v>0.6489544520265369</v>
+        <v>1.104085456885372</v>
       </c>
       <c r="G4">
-        <v>0.0008085421158085789</v>
+        <v>0.002475123370083089</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.220512475962863</v>
+        <v>0.9597441310163219</v>
       </c>
       <c r="L4">
-        <v>0.05053469254612963</v>
+        <v>0.119603175217744</v>
       </c>
       <c r="M4">
-        <v>0.5491222720136903</v>
+        <v>0.3763397990846826</v>
       </c>
       <c r="N4">
-        <v>0.8524959911236536</v>
+        <v>1.45297337215154</v>
       </c>
       <c r="O4">
-        <v>2.059467840446814</v>
+        <v>3.98965418983525</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2286101647026157</v>
+        <v>0.3676666684583552</v>
       </c>
       <c r="D5">
-        <v>0.03832112751274508</v>
+        <v>0.04483476028687505</v>
       </c>
       <c r="E5">
-        <v>0.07346911464383865</v>
+        <v>0.1451597047179476</v>
       </c>
       <c r="F5">
-        <v>0.6376587998668057</v>
+        <v>1.103830273740535</v>
       </c>
       <c r="G5">
-        <v>0.0008097906897318999</v>
+        <v>0.002475985136549722</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.128260244888565</v>
+        <v>0.9328216157491624</v>
       </c>
       <c r="L5">
-        <v>0.05022484269125727</v>
+        <v>0.1197550820984468</v>
       </c>
       <c r="M5">
-        <v>0.5273018964609619</v>
+        <v>0.3705337171827168</v>
       </c>
       <c r="N5">
-        <v>0.8601471500215894</v>
+        <v>1.456479448064947</v>
       </c>
       <c r="O5">
-        <v>2.034931287012625</v>
+        <v>3.992981566630618</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2276812507053592</v>
+        <v>0.3675396002182367</v>
       </c>
       <c r="D6">
-        <v>0.03821849277992939</v>
+        <v>0.04479734443001604</v>
       </c>
       <c r="E6">
-        <v>0.0732699996619175</v>
+        <v>0.1451557207588223</v>
       </c>
       <c r="F6">
-        <v>0.6358041625875117</v>
+        <v>1.103798618615876</v>
       </c>
       <c r="G6">
-        <v>0.0008099994986478147</v>
+        <v>0.002476129825681804</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.112948839427901</v>
+        <v>0.928353389823144</v>
       </c>
       <c r="L6">
-        <v>0.05017471005245611</v>
+        <v>0.1197811229298189</v>
       </c>
       <c r="M6">
-        <v>0.523683094585131</v>
+        <v>0.3695718479469008</v>
       </c>
       <c r="N6">
-        <v>0.8614336455665565</v>
+        <v>1.457069806031292</v>
       </c>
       <c r="O6">
-        <v>2.030927775094426</v>
+        <v>3.993571041986257</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2341586030804734</v>
+        <v>0.3684387693907922</v>
       </c>
       <c r="D7">
-        <v>0.03893042474188846</v>
+        <v>0.04505670803699502</v>
       </c>
       <c r="E7">
-        <v>0.07466275570147118</v>
+        <v>0.1451897694454622</v>
       </c>
       <c r="F7">
-        <v>0.6488006923544347</v>
+        <v>1.104081296785708</v>
       </c>
       <c r="G7">
-        <v>0.0008085588552738607</v>
+        <v>0.002475134885486963</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.219267836440878</v>
+        <v>0.9593808954599865</v>
       </c>
       <c r="L7">
-        <v>0.05053042476747649</v>
+        <v>0.1196051691306366</v>
       </c>
       <c r="M7">
-        <v>0.5488276889034296</v>
+        <v>0.3762613471696739</v>
       </c>
       <c r="N7">
-        <v>0.8525980980046555</v>
+        <v>1.453020108227996</v>
       </c>
       <c r="O7">
-        <v>2.059132141126781</v>
+        <v>3.989696585414634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2635187332465563</v>
+        <v>0.372831368417252</v>
       </c>
       <c r="D8">
-        <v>0.04206100963495629</v>
+        <v>0.0461926103013468</v>
       </c>
       <c r="E8">
-        <v>0.08108604747184955</v>
+        <v>0.145498230418255</v>
       </c>
       <c r="F8">
-        <v>0.7093696248701775</v>
+        <v>1.106887759594414</v>
       </c>
       <c r="G8">
-        <v>0.0008024139488346209</v>
+        <v>0.002470975501157303</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.68971619762911</v>
+        <v>1.096614264246483</v>
       </c>
       <c r="L8">
-        <v>0.05229941687822048</v>
+        <v>0.1189474415523577</v>
       </c>
       <c r="M8">
-        <v>0.660513690305109</v>
+        <v>0.4061023186759272</v>
       </c>
       <c r="N8">
-        <v>0.8159931877308466</v>
+        <v>1.436337555164108</v>
       </c>
       <c r="O8">
-        <v>2.194398694982539</v>
+        <v>3.977977119856661</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.32432935069059</v>
+        <v>0.3829701495823485</v>
       </c>
       <c r="D9">
-        <v>0.04816631470691846</v>
+        <v>0.04838814519739287</v>
       </c>
       <c r="E9">
-        <v>0.09481436016320188</v>
+        <v>0.1466714996726672</v>
       </c>
       <c r="F9">
-        <v>0.8414325311668023</v>
+        <v>1.118008068559362</v>
       </c>
       <c r="G9">
-        <v>0.0007910920089822137</v>
+        <v>0.002463644055040848</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.619722434041819</v>
+        <v>1.366788506102012</v>
       </c>
       <c r="L9">
-        <v>0.056565213467902</v>
+        <v>0.118084322554818</v>
       </c>
       <c r="M9">
-        <v>0.8829998855256136</v>
+        <v>0.4657617337626405</v>
       </c>
       <c r="N9">
-        <v>0.7533487556680143</v>
+        <v>1.407886479943528</v>
       </c>
       <c r="O9">
-        <v>2.503896642856574</v>
+        <v>3.974369993003876</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3714362420851671</v>
+        <v>0.3913489466884812</v>
       </c>
       <c r="D10">
-        <v>0.05263831172806732</v>
+        <v>0.04998100805393335</v>
       </c>
       <c r="E10">
-        <v>0.1057300520074271</v>
+        <v>0.147880186480041</v>
       </c>
       <c r="F10">
-        <v>0.948325106302633</v>
+        <v>1.129618467228056</v>
       </c>
       <c r="G10">
-        <v>0.0007831819826555947</v>
+        <v>0.002458755514039978</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.310551700430608</v>
+        <v>1.565890928307567</v>
       </c>
       <c r="L10">
-        <v>0.06026757170308628</v>
+        <v>0.1177104503688469</v>
       </c>
       <c r="M10">
-        <v>1.049471175979974</v>
+        <v>0.5102823541263035</v>
       </c>
       <c r="N10">
-        <v>0.7134717056155679</v>
+        <v>1.389577120850305</v>
       </c>
       <c r="O10">
-        <v>2.763792166667656</v>
+        <v>3.983583488554444</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3935041384003171</v>
+        <v>0.395362724855147</v>
       </c>
       <c r="D11">
-        <v>0.05467160760701262</v>
+        <v>0.0507011175196439</v>
       </c>
       <c r="E11">
-        <v>0.11090959732066</v>
+        <v>0.1485053937464933</v>
       </c>
       <c r="F11">
-        <v>0.9995216158138476</v>
+        <v>1.135651035377933</v>
       </c>
       <c r="G11">
-        <v>0.0007796636287716874</v>
+        <v>0.002456638607492169</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.62720206028024</v>
+        <v>1.656591896664793</v>
       </c>
       <c r="L11">
-        <v>0.06209518501040634</v>
+        <v>0.1175969216881541</v>
       </c>
       <c r="M11">
-        <v>1.12607474305733</v>
+        <v>0.5306843573468711</v>
       </c>
       <c r="N11">
-        <v>0.6968048966956388</v>
+        <v>1.381809876857893</v>
       </c>
       <c r="O11">
-        <v>2.890421834228675</v>
+        <v>3.990362812851089</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4019624488462625</v>
+        <v>0.3969117009916943</v>
       </c>
       <c r="D12">
-        <v>0.05544157629764612</v>
+        <v>0.05097314345271542</v>
       </c>
       <c r="E12">
-        <v>0.1129047536897332</v>
+        <v>0.1487529809054244</v>
       </c>
       <c r="F12">
-        <v>1.019316607741928</v>
+        <v>1.138043639226609</v>
       </c>
       <c r="G12">
-        <v>0.0007783420621108793</v>
+        <v>0.002455852281707313</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.747518474541721</v>
+        <v>1.690955370944494</v>
       </c>
       <c r="L12">
-        <v>0.06280967996203302</v>
+        <v>0.1175620648552389</v>
       </c>
       <c r="M12">
-        <v>1.155227865814553</v>
+        <v>0.538431336965786</v>
       </c>
       <c r="N12">
-        <v>0.6907182574554867</v>
+        <v>1.378949347694487</v>
       </c>
       <c r="O12">
-        <v>2.939702817692023</v>
+        <v>3.993302968172372</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4001361131633701</v>
+        <v>0.3965768099955653</v>
       </c>
       <c r="D13">
-        <v>0.05527574696843374</v>
+        <v>0.05091458761226164</v>
       </c>
       <c r="E13">
-        <v>0.1124735083494741</v>
+        <v>0.1486991767545902</v>
       </c>
       <c r="F13">
-        <v>1.015034612509666</v>
+        <v>1.137523533441126</v>
       </c>
       <c r="G13">
-        <v>0.0007786262190189552</v>
+        <v>0.002456020951647625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.721586960490527</v>
+        <v>1.683553849643317</v>
       </c>
       <c r="L13">
-        <v>0.0626547734588776</v>
+        <v>0.1175692100935422</v>
       </c>
       <c r="M13">
-        <v>1.148942446222719</v>
+        <v>0.5367619487839761</v>
       </c>
       <c r="N13">
-        <v>0.6920189143481537</v>
+        <v>1.379561822452047</v>
       </c>
       <c r="O13">
-        <v>2.929028132434524</v>
+        <v>3.992653152100644</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3941979117870744</v>
+        <v>0.3954895781326968</v>
       </c>
       <c r="D14">
-        <v>0.05473495237974646</v>
+        <v>0.05072351066515068</v>
       </c>
       <c r="E14">
-        <v>0.1110730450175268</v>
+        <v>0.1485255457653984</v>
       </c>
       <c r="F14">
-        <v>1.001141754247726</v>
+        <v>1.135845706579175</v>
       </c>
       <c r="G14">
-        <v>0.0007795546915286766</v>
+        <v>0.002456573609719324</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.637092002754684</v>
+        <v>1.659418668292176</v>
       </c>
       <c r="L14">
-        <v>0.06215350683755716</v>
+        <v>0.1175938909628869</v>
       </c>
       <c r="M14">
-        <v>1.128470165849919</v>
+        <v>0.5313212831393201</v>
       </c>
       <c r="N14">
-        <v>0.6962995643525787</v>
+        <v>1.381572921022787</v>
       </c>
       <c r="O14">
-        <v>2.894448845491041</v>
+        <v>3.990597221613996</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3905741386188595</v>
+        <v>0.3948273988026756</v>
       </c>
       <c r="D15">
-        <v>0.05440370540836881</v>
+        <v>0.05060638352758673</v>
       </c>
       <c r="E15">
-        <v>0.110219712803854</v>
+        <v>0.1484206026770671</v>
       </c>
       <c r="F15">
-        <v>0.9926863005905915</v>
+        <v>1.134832086617251</v>
       </c>
       <c r="G15">
-        <v>0.0007801247857671667</v>
+        <v>0.002456914119195958</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.585391513168588</v>
+        <v>1.644637341674468</v>
       </c>
       <c r="L15">
-        <v>0.06184944183789653</v>
+        <v>0.1176100680739154</v>
       </c>
       <c r="M15">
-        <v>1.115949786045114</v>
+        <v>0.5279914684285529</v>
       </c>
       <c r="N15">
-        <v>0.6989512495197658</v>
+        <v>1.382815293342688</v>
       </c>
       <c r="O15">
-        <v>2.87344487745051</v>
+        <v>3.989386500998165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3700077283519079</v>
+        <v>0.3910907031673219</v>
       </c>
       <c r="D16">
-        <v>0.05250542283541648</v>
+        <v>0.04993385527959759</v>
       </c>
       <c r="E16">
-        <v>0.1053961134507553</v>
+        <v>0.1478408440569545</v>
       </c>
       <c r="F16">
-        <v>0.9450342273584766</v>
+        <v>1.129239354081037</v>
       </c>
       <c r="G16">
-        <v>0.0007834134623031549</v>
+        <v>0.002458896003904015</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.289911291448902</v>
+        <v>1.559965863037576</v>
       </c>
       <c r="L16">
-        <v>0.06015116868102055</v>
+        <v>0.1177190078318837</v>
       </c>
       <c r="M16">
-        <v>1.044484163012484</v>
+        <v>0.5089520154989131</v>
       </c>
       <c r="N16">
-        <v>0.7145916452222778</v>
+        <v>1.390096030591742</v>
       </c>
       <c r="O16">
-        <v>2.755695797907663</v>
+        <v>3.983192591532031</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3575612446746845</v>
+        <v>0.3888501310774188</v>
       </c>
       <c r="D17">
-        <v>0.051340725283886</v>
+        <v>0.04952011768523334</v>
       </c>
       <c r="E17">
-        <v>0.1024938539986344</v>
+        <v>0.1475044824787588</v>
       </c>
       <c r="F17">
-        <v>0.9164859214889134</v>
+        <v>1.126000881787988</v>
       </c>
       <c r="G17">
-        <v>0.000785450928343739</v>
+        <v>0.002460139157081976</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.109299562881063</v>
+        <v>1.508054467597049</v>
       </c>
       <c r="L17">
-        <v>0.0591472933368955</v>
+        <v>0.1178003238171925</v>
       </c>
       <c r="M17">
-        <v>1.0008795659488</v>
+        <v>0.4973099713339906</v>
       </c>
       <c r="N17">
-        <v>0.7245727322625299</v>
+        <v>1.394706391511342</v>
       </c>
       <c r="O17">
-        <v>2.685695427543976</v>
+        <v>3.980056270028541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3504618438246041</v>
+        <v>0.3875804493032149</v>
       </c>
       <c r="D18">
-        <v>0.05067071415236768</v>
+        <v>0.04928172503573336</v>
       </c>
       <c r="E18">
-        <v>0.100844494364452</v>
+        <v>0.1473181105279942</v>
       </c>
       <c r="F18">
-        <v>0.9003051703713396</v>
+        <v>1.12420886716518</v>
       </c>
       <c r="G18">
-        <v>0.000786630398270917</v>
+        <v>0.002460864253898991</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.005637136338066</v>
+        <v>1.478208566965634</v>
       </c>
       <c r="L18">
-        <v>0.0585832716072936</v>
+        <v>0.1178524169948183</v>
       </c>
       <c r="M18">
-        <v>0.9758804661680998</v>
+        <v>0.4906278503628201</v>
       </c>
       <c r="N18">
-        <v>0.7304514524680883</v>
+        <v>1.397411027228706</v>
       </c>
       <c r="O18">
-        <v>2.646216091096818</v>
+        <v>3.978495892418749</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3480680389554607</v>
+        <v>0.3871538273602937</v>
       </c>
       <c r="D19">
-        <v>0.05044383699551958</v>
+        <v>0.04920093749821319</v>
       </c>
       <c r="E19">
-        <v>0.1002893869760477</v>
+        <v>0.1472562267491462</v>
       </c>
       <c r="F19">
-        <v>0.8948666584377776</v>
+        <v>1.123614252667537</v>
       </c>
       <c r="G19">
-        <v>0.0007870310688864076</v>
+        <v>0.002461111490530347</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.970574849337538</v>
+        <v>1.468105391093445</v>
       </c>
       <c r="L19">
-        <v>0.05839454926761434</v>
+        <v>0.1178709688975701</v>
       </c>
       <c r="M19">
-        <v>0.9674295727048232</v>
+        <v>0.488367825329945</v>
       </c>
       <c r="N19">
-        <v>0.7324651892264384</v>
+        <v>1.398335853132181</v>
       </c>
       <c r="O19">
-        <v>2.632980026958165</v>
+        <v>3.978009380889119</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3588799687071003</v>
+        <v>0.3890866738888406</v>
       </c>
       <c r="D20">
-        <v>0.05146471944389219</v>
+        <v>0.04956420453593324</v>
       </c>
       <c r="E20">
-        <v>0.102800719383719</v>
+        <v>0.1475395545309013</v>
       </c>
       <c r="F20">
-        <v>0.9194998842564388</v>
+        <v>1.126338307143428</v>
       </c>
       <c r="G20">
-        <v>0.0007852332579835197</v>
+        <v>0.002460005779981872</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.128502703813751</v>
+        <v>1.513579276237749</v>
       </c>
       <c r="L20">
-        <v>0.05925276015482694</v>
+        <v>0.1177911167279611</v>
       </c>
       <c r="M20">
-        <v>1.005512821142979</v>
+        <v>0.4985478322325534</v>
       </c>
       <c r="N20">
-        <v>0.7234958704098915</v>
+        <v>1.394210138236993</v>
       </c>
       <c r="O20">
-        <v>2.693065201963861</v>
+        <v>3.98036492424373</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3959392636897974</v>
+        <v>0.3958081364681334</v>
       </c>
       <c r="D21">
-        <v>0.05489379544973616</v>
+        <v>0.05077965275640395</v>
       </c>
       <c r="E21">
-        <v>0.1114834531921112</v>
+        <v>0.1485762513700273</v>
       </c>
       <c r="F21">
-        <v>1.005211029678776</v>
+        <v>1.136335586718644</v>
       </c>
       <c r="G21">
-        <v>0.0007792816908609095</v>
+        <v>0.002456410865927374</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.661898611956985</v>
+        <v>1.666507306711139</v>
       </c>
       <c r="L21">
-        <v>0.06230011753125453</v>
+        <v>0.1175864208179398</v>
       </c>
       <c r="M21">
-        <v>1.134479273983729</v>
+        <v>0.5329187659263397</v>
       </c>
       <c r="N21">
-        <v>0.695036027497288</v>
+        <v>1.380980021055564</v>
       </c>
       <c r="O21">
-        <v>2.904568536185081</v>
+        <v>3.991190969381393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4207574574844841</v>
+        <v>0.4003702844961765</v>
       </c>
       <c r="D22">
-        <v>0.05713500070482525</v>
+        <v>0.05157014050841724</v>
       </c>
       <c r="E22">
-        <v>0.1173565659698639</v>
+        <v>0.1493169443654949</v>
       </c>
       <c r="F22">
-        <v>1.063626380343194</v>
+        <v>1.143500167248348</v>
       </c>
       <c r="G22">
-        <v>0.00077545431620737</v>
+        <v>0.00245415053304823</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.012914626038537</v>
+        <v>1.766552949330674</v>
       </c>
       <c r="L22">
-        <v>0.06442335084586404</v>
+        <v>0.1175000527324066</v>
       </c>
       <c r="M22">
-        <v>1.219621688241659</v>
+        <v>0.5555054984154992</v>
       </c>
       <c r="N22">
-        <v>0.6777524165221394</v>
+        <v>1.372804084116829</v>
       </c>
       <c r="O22">
-        <v>3.050608573951905</v>
+        <v>4.000440763051159</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4074533616620784</v>
+        <v>0.3979199018367865</v>
       </c>
       <c r="D23">
-        <v>0.0559387621950691</v>
+        <v>0.05114860305248214</v>
       </c>
       <c r="E23">
-        <v>0.1142027576299753</v>
+        <v>0.1489158452543045</v>
       </c>
       <c r="F23">
-        <v>1.032216071101146</v>
+        <v>1.139618507556463</v>
       </c>
       <c r="G23">
-        <v>0.0007774916154859556</v>
+        <v>0.002455348782038345</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4.825327420219992</v>
+        <v>1.713148190313916</v>
       </c>
       <c r="L23">
-        <v>0.06327746582650562</v>
+        <v>0.1175418098871326</v>
       </c>
       <c r="M23">
-        <v>1.174094529536873</v>
+        <v>0.543439344884078</v>
       </c>
       <c r="N23">
-        <v>0.6868520302952987</v>
+        <v>1.377124672337729</v>
       </c>
       <c r="O23">
-        <v>2.9719069947121</v>
+        <v>3.995304751960248</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3582835991041975</v>
+        <v>0.388979675403732</v>
       </c>
       <c r="D24">
-        <v>0.05140866297560365</v>
+        <v>0.04954427451731647</v>
       </c>
       <c r="E24">
-        <v>0.1026619260014385</v>
+        <v>0.1475236766306871</v>
       </c>
       <c r="F24">
-        <v>0.9181365517659827</v>
+        <v>1.126185539648688</v>
       </c>
       <c r="G24">
-        <v>0.0007853316413993069</v>
+        <v>0.002460066047487859</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.119820427671868</v>
+        <v>1.511081514340503</v>
       </c>
       <c r="L24">
-        <v>0.05920503787607601</v>
+        <v>0.1177952626087269</v>
       </c>
       <c r="M24">
-        <v>1.003417910601989</v>
+        <v>0.4979881608938754</v>
       </c>
       <c r="N24">
-        <v>0.7239822831098195</v>
+        <v>1.394434325885427</v>
       </c>
       <c r="O24">
-        <v>2.689730953759607</v>
+        <v>3.980224625611186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3074869046166953</v>
+        <v>0.3800640682825076</v>
       </c>
       <c r="D25">
-        <v>0.04651760656685155</v>
+        <v>0.04779769086022156</v>
       </c>
       <c r="E25">
-        <v>0.09096550380686708</v>
+        <v>0.146293231610084</v>
       </c>
       <c r="F25">
-        <v>0.8041089595130586</v>
+        <v>1.11439674317073</v>
       </c>
       <c r="G25">
-        <v>0.0007940804857820796</v>
+        <v>0.002465539605488787</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.367036398692335</v>
+        <v>1.293589975104908</v>
       </c>
       <c r="L25">
-        <v>0.05531774246928833</v>
+        <v>0.1182721253845465</v>
       </c>
       <c r="M25">
-        <v>0.8223516705360794</v>
+        <v>0.4495008147406594</v>
       </c>
       <c r="N25">
-        <v>0.7692605150300125</v>
+        <v>1.415127410429584</v>
       </c>
       <c r="O25">
-        <v>2.414885920502456</v>
+        <v>3.973266226057234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3741247334384212</v>
+        <v>0.2716769923295033</v>
       </c>
       <c r="D2">
-        <v>0.04649824640627287</v>
+        <v>0.04290672399944384</v>
       </c>
       <c r="E2">
-        <v>0.1456202660292512</v>
+        <v>0.0828982402610059</v>
       </c>
       <c r="F2">
-        <v>1.108027689185711</v>
+        <v>0.7266188551538377</v>
       </c>
       <c r="G2">
-        <v>0.00246990454627088</v>
+        <v>0.0008007995157645278</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.13387091036364</v>
+        <v>2.817585394960247</v>
       </c>
       <c r="L2">
-        <v>0.1187981008196708</v>
+        <v>0.05282979247008157</v>
       </c>
       <c r="M2">
-        <v>0.414265231808109</v>
+        <v>0.6909789834057349</v>
       </c>
       <c r="N2">
-        <v>1.432106154888601</v>
+        <v>0.8066735547476611</v>
       </c>
       <c r="O2">
-        <v>3.976110968011028</v>
+        <v>2.233851577737909</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3704893607892217</v>
+        <v>0.2482498091131191</v>
       </c>
       <c r="D3">
-        <v>0.0456094257289763</v>
+        <v>0.04045121963667953</v>
       </c>
       <c r="E3">
-        <v>0.1453094501481331</v>
+        <v>0.07772476203354728</v>
       </c>
       <c r="F3">
-        <v>1.105147322339121</v>
+        <v>0.6775545143310993</v>
       </c>
       <c r="G3">
-        <v>0.002473073296272595</v>
+        <v>0.0008055379163108056</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.025899616534019</v>
+        <v>2.447223685865822</v>
       </c>
       <c r="L3">
-        <v>0.1192635899362919</v>
+        <v>0.05134989763488207</v>
       </c>
       <c r="M3">
-        <v>0.3906776901091931</v>
+        <v>0.602862812695534</v>
       </c>
       <c r="N3">
-        <v>1.44470177941929</v>
+        <v>0.8343809488130631</v>
       </c>
       <c r="O3">
-        <v>3.982991701570995</v>
+        <v>2.122642357105491</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3684495232528775</v>
+        <v>0.2342348014473998</v>
       </c>
       <c r="D4">
-        <v>0.04505973823963672</v>
+        <v>0.03893874893599403</v>
       </c>
       <c r="E4">
-        <v>0.1451902544362795</v>
+        <v>0.07467919839634618</v>
       </c>
       <c r="F4">
-        <v>1.104085456885372</v>
+        <v>0.648954452026544</v>
       </c>
       <c r="G4">
-        <v>0.002475123370083089</v>
+        <v>0.0008085421157842571</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9597441310163219</v>
+        <v>2.220512475962948</v>
       </c>
       <c r="L4">
-        <v>0.119603175217744</v>
+        <v>0.05053469254613319</v>
       </c>
       <c r="M4">
-        <v>0.3763397990846826</v>
+        <v>0.5491222720136975</v>
       </c>
       <c r="N4">
-        <v>1.45297337215154</v>
+        <v>0.8524959911235968</v>
       </c>
       <c r="O4">
-        <v>3.98965418983525</v>
+        <v>2.059467840446757</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3676666684583552</v>
+        <v>0.2286101647024736</v>
       </c>
       <c r="D5">
-        <v>0.04483476028687505</v>
+        <v>0.03832112751291561</v>
       </c>
       <c r="E5">
-        <v>0.1451597047179476</v>
+        <v>0.07346911464379247</v>
       </c>
       <c r="F5">
-        <v>1.103830273740535</v>
+        <v>0.6376587998668199</v>
       </c>
       <c r="G5">
-        <v>0.002475985136549722</v>
+        <v>0.0008097906898155338</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9328216157491624</v>
+        <v>2.12826024488848</v>
       </c>
       <c r="L5">
-        <v>0.1197550820984468</v>
+        <v>0.05022484269117911</v>
       </c>
       <c r="M5">
-        <v>0.3705337171827168</v>
+        <v>0.5273018964609477</v>
       </c>
       <c r="N5">
-        <v>1.456479448064947</v>
+        <v>0.8601471500215183</v>
       </c>
       <c r="O5">
-        <v>3.992981566630618</v>
+        <v>2.034931287012569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3675396002182367</v>
+        <v>0.2276812507051318</v>
       </c>
       <c r="D6">
-        <v>0.04479734443001604</v>
+        <v>0.03821849277992229</v>
       </c>
       <c r="E6">
-        <v>0.1451557207588223</v>
+        <v>0.07326999966189618</v>
       </c>
       <c r="F6">
-        <v>1.103798618615876</v>
+        <v>0.635804162587533</v>
       </c>
       <c r="G6">
-        <v>0.002476129825681804</v>
+        <v>0.0008099994986753978</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.928353389823144</v>
+        <v>2.112948839427872</v>
       </c>
       <c r="L6">
-        <v>0.1197811229298189</v>
+        <v>0.05017471005256624</v>
       </c>
       <c r="M6">
-        <v>0.3695718479469008</v>
+        <v>0.5236830945851239</v>
       </c>
       <c r="N6">
-        <v>1.457069806031292</v>
+        <v>0.8614336455665423</v>
       </c>
       <c r="O6">
-        <v>3.993571041986257</v>
+        <v>2.030927775094455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3684387693907922</v>
+        <v>0.2341586030806155</v>
       </c>
       <c r="D7">
-        <v>0.04505670803699502</v>
+        <v>0.03893042474193464</v>
       </c>
       <c r="E7">
-        <v>0.1451897694454622</v>
+        <v>0.07466275570146763</v>
       </c>
       <c r="F7">
-        <v>1.104081296785708</v>
+        <v>0.6488006923544347</v>
       </c>
       <c r="G7">
-        <v>0.002475134885486963</v>
+        <v>0.0008085588552985858</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9593808954599865</v>
+        <v>2.219267836440906</v>
       </c>
       <c r="L7">
-        <v>0.1196051691306366</v>
+        <v>0.05053042476750136</v>
       </c>
       <c r="M7">
-        <v>0.3762613471696739</v>
+        <v>0.5488276889034296</v>
       </c>
       <c r="N7">
-        <v>1.453020108227996</v>
+        <v>0.8525980980046413</v>
       </c>
       <c r="O7">
-        <v>3.989696585414634</v>
+        <v>2.059132141126838</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.372831368417252</v>
+        <v>0.2635187332465421</v>
       </c>
       <c r="D8">
-        <v>0.0461926103013468</v>
+        <v>0.04206100963484261</v>
       </c>
       <c r="E8">
-        <v>0.145498230418255</v>
+        <v>0.08108604747186732</v>
       </c>
       <c r="F8">
-        <v>1.106887759594414</v>
+        <v>0.7093696248701633</v>
       </c>
       <c r="G8">
-        <v>0.002470975501157303</v>
+        <v>0.0008024139488641952</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.096614264246483</v>
+        <v>2.68971619762911</v>
       </c>
       <c r="L8">
-        <v>0.1189474415523577</v>
+        <v>0.0522994168781068</v>
       </c>
       <c r="M8">
-        <v>0.4061023186759272</v>
+        <v>0.6605136903050948</v>
       </c>
       <c r="N8">
-        <v>1.436337555164108</v>
+        <v>0.8159931877308537</v>
       </c>
       <c r="O8">
-        <v>3.977977119856661</v>
+        <v>2.194398694982539</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3829701495823485</v>
+        <v>0.3243293506906753</v>
       </c>
       <c r="D9">
-        <v>0.04838814519739287</v>
+        <v>0.04816631470685451</v>
       </c>
       <c r="E9">
-        <v>0.1466714996726672</v>
+        <v>0.09481436016320544</v>
       </c>
       <c r="F9">
-        <v>1.118008068559362</v>
+        <v>0.8414325311667881</v>
       </c>
       <c r="G9">
-        <v>0.002463644055040848</v>
+        <v>0.0007910920089544054</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.366788506102012</v>
+        <v>3.619722434041762</v>
       </c>
       <c r="L9">
-        <v>0.118084322554818</v>
+        <v>0.05656521346791976</v>
       </c>
       <c r="M9">
-        <v>0.4657617337626405</v>
+        <v>0.8829998855256207</v>
       </c>
       <c r="N9">
-        <v>1.407886479943528</v>
+        <v>0.7533487556680143</v>
       </c>
       <c r="O9">
-        <v>3.974369993003876</v>
+        <v>2.503896642856574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3913489466884812</v>
+        <v>0.3714362420849113</v>
       </c>
       <c r="D10">
-        <v>0.04998100805393335</v>
+        <v>0.05263831172801758</v>
       </c>
       <c r="E10">
-        <v>0.147880186480041</v>
+        <v>0.1057300520074307</v>
       </c>
       <c r="F10">
-        <v>1.129618467228056</v>
+        <v>0.9483251063026472</v>
       </c>
       <c r="G10">
-        <v>0.002458755514039978</v>
+        <v>0.0007831819826263149</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.565890928307567</v>
+        <v>4.310551700430665</v>
       </c>
       <c r="L10">
-        <v>0.1177104503688469</v>
+        <v>0.06026757170302588</v>
       </c>
       <c r="M10">
-        <v>0.5102823541263035</v>
+        <v>1.049471175979967</v>
       </c>
       <c r="N10">
-        <v>1.389577120850305</v>
+        <v>0.7134717056155608</v>
       </c>
       <c r="O10">
-        <v>3.983583488554444</v>
+        <v>2.763792166667628</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.395362724855147</v>
+        <v>0.3935041384004876</v>
       </c>
       <c r="D11">
-        <v>0.0507011175196439</v>
+        <v>0.05467160760701972</v>
       </c>
       <c r="E11">
-        <v>0.1485053937464933</v>
+        <v>0.1109095973206635</v>
       </c>
       <c r="F11">
-        <v>1.135651035377933</v>
+        <v>0.9995216158138334</v>
       </c>
       <c r="G11">
-        <v>0.002456638607492169</v>
+        <v>0.0007796636287048456</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.656591896664793</v>
+        <v>4.627202060280183</v>
       </c>
       <c r="L11">
-        <v>0.1175969216881541</v>
+        <v>0.06209518501039923</v>
       </c>
       <c r="M11">
-        <v>0.5306843573468711</v>
+        <v>1.12607474305733</v>
       </c>
       <c r="N11">
-        <v>1.381809876857893</v>
+        <v>0.6968048966955749</v>
       </c>
       <c r="O11">
-        <v>3.990362812851089</v>
+        <v>2.890421834228647</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3969117009916943</v>
+        <v>0.4019624488462057</v>
       </c>
       <c r="D12">
-        <v>0.05097314345271542</v>
+        <v>0.05544157629758217</v>
       </c>
       <c r="E12">
-        <v>0.1487529809054244</v>
+        <v>0.1129047536897296</v>
       </c>
       <c r="F12">
-        <v>1.138043639226609</v>
+        <v>1.019316607741928</v>
       </c>
       <c r="G12">
-        <v>0.002455852281707313</v>
+        <v>0.0007783420621112745</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.690955370944494</v>
+        <v>4.747518474541721</v>
       </c>
       <c r="L12">
-        <v>0.1175620648552389</v>
+        <v>0.06280967996209341</v>
       </c>
       <c r="M12">
-        <v>0.538431336965786</v>
+        <v>1.155227865814553</v>
       </c>
       <c r="N12">
-        <v>1.378949347694487</v>
+        <v>0.6907182574554795</v>
       </c>
       <c r="O12">
-        <v>3.993302968172372</v>
+        <v>2.939702817691995</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3965768099955653</v>
+        <v>0.4001361131632564</v>
       </c>
       <c r="D13">
-        <v>0.05091458761226164</v>
+        <v>0.05527574696832005</v>
       </c>
       <c r="E13">
-        <v>0.1486991767545902</v>
+        <v>0.1124735083494741</v>
       </c>
       <c r="F13">
-        <v>1.137523533441126</v>
+        <v>1.015034612509652</v>
       </c>
       <c r="G13">
-        <v>0.002456020951647625</v>
+        <v>0.0007786262190810218</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.683553849643317</v>
+        <v>4.721586960490583</v>
       </c>
       <c r="L13">
-        <v>0.1175692100935422</v>
+        <v>0.06265477345885628</v>
       </c>
       <c r="M13">
-        <v>0.5367619487839761</v>
+        <v>1.148942446222719</v>
       </c>
       <c r="N13">
-        <v>1.379561822452047</v>
+        <v>0.6920189143480897</v>
       </c>
       <c r="O13">
-        <v>3.992653152100644</v>
+        <v>2.929028132434524</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3954895781326968</v>
+        <v>0.3941979117870176</v>
       </c>
       <c r="D14">
-        <v>0.05072351066515068</v>
+        <v>0.05473495237974646</v>
       </c>
       <c r="E14">
-        <v>0.1485255457653984</v>
+        <v>0.1110730450175268</v>
       </c>
       <c r="F14">
-        <v>1.135845706579175</v>
+        <v>1.001141754247726</v>
       </c>
       <c r="G14">
-        <v>0.002456573609719324</v>
+        <v>0.0007795546915279612</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.659418668292176</v>
+        <v>4.637092002754628</v>
       </c>
       <c r="L14">
-        <v>0.1175938909628869</v>
+        <v>0.06215350683760335</v>
       </c>
       <c r="M14">
-        <v>0.5313212831393201</v>
+        <v>1.128470165849919</v>
       </c>
       <c r="N14">
-        <v>1.381572921022787</v>
+        <v>0.6962995643525787</v>
       </c>
       <c r="O14">
-        <v>3.990597221613996</v>
+        <v>2.894448845490928</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3948273988026756</v>
+        <v>0.39057413861903</v>
       </c>
       <c r="D15">
-        <v>0.05060638352758673</v>
+        <v>0.05440370540837591</v>
       </c>
       <c r="E15">
-        <v>0.1484206026770671</v>
+        <v>0.1102197128038398</v>
       </c>
       <c r="F15">
-        <v>1.134832086617251</v>
+        <v>0.9926863005905915</v>
       </c>
       <c r="G15">
-        <v>0.002456914119195958</v>
+        <v>0.0007801247857348592</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.644637341674468</v>
+        <v>4.585391513168588</v>
       </c>
       <c r="L15">
-        <v>0.1176100680739154</v>
+        <v>0.06184944183775443</v>
       </c>
       <c r="M15">
-        <v>0.5279914684285529</v>
+        <v>1.1159497860451</v>
       </c>
       <c r="N15">
-        <v>1.382815293342688</v>
+        <v>0.6989512495197658</v>
       </c>
       <c r="O15">
-        <v>3.989386500998165</v>
+        <v>2.873444877450538</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3910907031673219</v>
+        <v>0.3700077283519363</v>
       </c>
       <c r="D16">
-        <v>0.04993385527959759</v>
+        <v>0.05250542283535253</v>
       </c>
       <c r="E16">
-        <v>0.1478408440569545</v>
+        <v>0.1053961134507517</v>
       </c>
       <c r="F16">
-        <v>1.129239354081037</v>
+        <v>0.9450342273585051</v>
       </c>
       <c r="G16">
-        <v>0.002458896003904015</v>
+        <v>0.0007834134623029601</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.559965863037576</v>
+        <v>4.289911291449016</v>
       </c>
       <c r="L16">
-        <v>0.1177190078318837</v>
+        <v>0.06015116868107739</v>
       </c>
       <c r="M16">
-        <v>0.5089520154989131</v>
+        <v>1.044484163012505</v>
       </c>
       <c r="N16">
-        <v>1.390096030591742</v>
+        <v>0.7145916452222849</v>
       </c>
       <c r="O16">
-        <v>3.983192591532031</v>
+        <v>2.755695797907748</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3888501310774188</v>
+        <v>0.3575612446745424</v>
       </c>
       <c r="D17">
-        <v>0.04952011768523334</v>
+        <v>0.05134072528387179</v>
       </c>
       <c r="E17">
-        <v>0.1475044824787588</v>
+        <v>0.1024938539986344</v>
       </c>
       <c r="F17">
-        <v>1.126000881787988</v>
+        <v>0.9164859214888992</v>
       </c>
       <c r="G17">
-        <v>0.002460139157081976</v>
+        <v>0.0007854509283405444</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.508054467597049</v>
+        <v>4.10929956288112</v>
       </c>
       <c r="L17">
-        <v>0.1178003238171925</v>
+        <v>0.05914729333694169</v>
       </c>
       <c r="M17">
-        <v>0.4973099713339906</v>
+        <v>1.000879565948807</v>
       </c>
       <c r="N17">
-        <v>1.394706391511342</v>
+        <v>0.7245727322624589</v>
       </c>
       <c r="O17">
-        <v>3.980056270028541</v>
+        <v>2.685695427543948</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3875804493032149</v>
+        <v>0.3504618438248883</v>
       </c>
       <c r="D18">
-        <v>0.04928172503573336</v>
+        <v>0.05067071415219715</v>
       </c>
       <c r="E18">
-        <v>0.1473181105279942</v>
+        <v>0.1008444943644555</v>
       </c>
       <c r="F18">
-        <v>1.12420886716518</v>
+        <v>0.9003051703713254</v>
       </c>
       <c r="G18">
-        <v>0.002460864253898991</v>
+        <v>0.0007866303982763042</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.478208566965634</v>
+        <v>4.00563713633818</v>
       </c>
       <c r="L18">
-        <v>0.1178524169948183</v>
+        <v>0.0585832716073611</v>
       </c>
       <c r="M18">
-        <v>0.4906278503628201</v>
+        <v>0.9758804661680927</v>
       </c>
       <c r="N18">
-        <v>1.397411027228706</v>
+        <v>0.7304514524680314</v>
       </c>
       <c r="O18">
-        <v>3.978495892418749</v>
+        <v>2.646216091096818</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3871538273602937</v>
+        <v>0.3480680389555744</v>
       </c>
       <c r="D19">
-        <v>0.04920093749821319</v>
+        <v>0.05044383699522825</v>
       </c>
       <c r="E19">
-        <v>0.1472562267491462</v>
+        <v>0.1002893869760477</v>
       </c>
       <c r="F19">
-        <v>1.123614252667537</v>
+        <v>0.8948666584377634</v>
       </c>
       <c r="G19">
-        <v>0.002461111490530347</v>
+        <v>0.0007870310688873118</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.468105391093445</v>
+        <v>3.970574849337709</v>
       </c>
       <c r="L19">
-        <v>0.1178709688975701</v>
+        <v>0.05839454926758947</v>
       </c>
       <c r="M19">
-        <v>0.488367825329945</v>
+        <v>0.9674295727048303</v>
       </c>
       <c r="N19">
-        <v>1.398335853132181</v>
+        <v>0.7324651892264527</v>
       </c>
       <c r="O19">
-        <v>3.978009380889119</v>
+        <v>2.632980026958137</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3890866738888406</v>
+        <v>0.3588799687070434</v>
       </c>
       <c r="D20">
-        <v>0.04956420453593324</v>
+        <v>0.05146471944397035</v>
       </c>
       <c r="E20">
-        <v>0.1475395545309013</v>
+        <v>0.1028007193837155</v>
       </c>
       <c r="F20">
-        <v>1.126338307143428</v>
+        <v>0.9194998842564246</v>
       </c>
       <c r="G20">
-        <v>0.002460005779981872</v>
+        <v>0.0007852332579865968</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.513579276237749</v>
+        <v>4.128502703813695</v>
       </c>
       <c r="L20">
-        <v>0.1177911167279611</v>
+        <v>0.0592527601548305</v>
       </c>
       <c r="M20">
-        <v>0.4985478322325534</v>
+        <v>1.005512821142986</v>
       </c>
       <c r="N20">
-        <v>1.394210138236993</v>
+        <v>0.7234958704098915</v>
       </c>
       <c r="O20">
-        <v>3.98036492424373</v>
+        <v>2.693065201963833</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3958081364681334</v>
+        <v>0.3959392636895132</v>
       </c>
       <c r="D21">
-        <v>0.05077965275640395</v>
+        <v>0.05489379544969353</v>
       </c>
       <c r="E21">
-        <v>0.1485762513700273</v>
+        <v>0.1114834531921076</v>
       </c>
       <c r="F21">
-        <v>1.136335586718644</v>
+        <v>1.005211029678762</v>
       </c>
       <c r="G21">
-        <v>0.002456410865927374</v>
+        <v>0.000779281690855679</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.666507306711139</v>
+        <v>4.661898611956985</v>
       </c>
       <c r="L21">
-        <v>0.1175864208179398</v>
+        <v>0.06230011753125098</v>
       </c>
       <c r="M21">
-        <v>0.5329187659263397</v>
+        <v>1.134479273983757</v>
       </c>
       <c r="N21">
-        <v>1.380980021055564</v>
+        <v>0.6950360274972738</v>
       </c>
       <c r="O21">
-        <v>3.991190969381393</v>
+        <v>2.904568536185081</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4003702844961765</v>
+        <v>0.4207574574844841</v>
       </c>
       <c r="D22">
-        <v>0.05157014050841724</v>
+        <v>0.05713500070481814</v>
       </c>
       <c r="E22">
-        <v>0.1493169443654949</v>
+        <v>0.1173565659698745</v>
       </c>
       <c r="F22">
-        <v>1.143500167248348</v>
+        <v>1.063626380343223</v>
       </c>
       <c r="G22">
-        <v>0.00245415053304823</v>
+        <v>0.0007754543162353888</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.766552949330674</v>
+        <v>5.012914626038594</v>
       </c>
       <c r="L22">
-        <v>0.1175000527324066</v>
+        <v>0.06442335084585693</v>
       </c>
       <c r="M22">
-        <v>0.5555054984154992</v>
+        <v>1.219621688241631</v>
       </c>
       <c r="N22">
-        <v>1.372804084116829</v>
+        <v>0.6777524165221323</v>
       </c>
       <c r="O22">
-        <v>4.000440763051159</v>
+        <v>3.050608573951962</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3979199018367865</v>
+        <v>0.4074533616618794</v>
       </c>
       <c r="D23">
-        <v>0.05114860305248214</v>
+        <v>0.05593876219502647</v>
       </c>
       <c r="E23">
-        <v>0.1489158452543045</v>
+        <v>0.1142027576299789</v>
       </c>
       <c r="F23">
-        <v>1.139618507556463</v>
+        <v>1.032216071101146</v>
       </c>
       <c r="G23">
-        <v>0.002455348782038345</v>
+        <v>0.0007774916154526176</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.713148190313916</v>
+        <v>4.825327420220106</v>
       </c>
       <c r="L23">
-        <v>0.1175418098871326</v>
+        <v>0.06327746582651272</v>
       </c>
       <c r="M23">
-        <v>0.543439344884078</v>
+        <v>1.174094529536845</v>
       </c>
       <c r="N23">
-        <v>1.377124672337729</v>
+        <v>0.6868520302952987</v>
       </c>
       <c r="O23">
-        <v>3.995304751960248</v>
+        <v>2.971906994712072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.388979675403732</v>
+        <v>0.3582835991041691</v>
       </c>
       <c r="D24">
-        <v>0.04954427451731647</v>
+        <v>0.0514086629756747</v>
       </c>
       <c r="E24">
-        <v>0.1475236766306871</v>
+        <v>0.1026619260014741</v>
       </c>
       <c r="F24">
-        <v>1.126185539648688</v>
+        <v>0.9181365517659827</v>
       </c>
       <c r="G24">
-        <v>0.002460066047487859</v>
+        <v>0.0007853316414310401</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.511081514340503</v>
+        <v>4.119820427671812</v>
       </c>
       <c r="L24">
-        <v>0.1177952626087269</v>
+        <v>0.05920503787604758</v>
       </c>
       <c r="M24">
-        <v>0.4979881608938754</v>
+        <v>1.003417910601996</v>
       </c>
       <c r="N24">
-        <v>1.394434325885427</v>
+        <v>0.7239822831098053</v>
       </c>
       <c r="O24">
-        <v>3.980224625611186</v>
+        <v>2.689730953759522</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3800640682825076</v>
+        <v>0.3074869046166668</v>
       </c>
       <c r="D25">
-        <v>0.04779769086022156</v>
+        <v>0.04651760656679471</v>
       </c>
       <c r="E25">
-        <v>0.146293231610084</v>
+        <v>0.09096550380686352</v>
       </c>
       <c r="F25">
-        <v>1.11439674317073</v>
+        <v>0.8041089595130586</v>
       </c>
       <c r="G25">
-        <v>0.002465539605488787</v>
+        <v>0.0007940804857818895</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.293589975104908</v>
+        <v>3.367036398692221</v>
       </c>
       <c r="L25">
-        <v>0.1182721253845465</v>
+        <v>0.05531774246932031</v>
       </c>
       <c r="M25">
-        <v>0.4495008147406594</v>
+        <v>0.8223516705360936</v>
       </c>
       <c r="N25">
-        <v>1.415127410429584</v>
+        <v>0.7692605150300693</v>
       </c>
       <c r="O25">
-        <v>3.973266226057234</v>
+        <v>2.414885920502456</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2716769923295033</v>
+        <v>0.02328861020226469</v>
       </c>
       <c r="D2">
-        <v>0.04290672399944384</v>
+        <v>0.1441526472815866</v>
       </c>
       <c r="E2">
-        <v>0.0828982402610059</v>
+        <v>0.1729503872935751</v>
       </c>
       <c r="F2">
-        <v>0.7266188551538377</v>
+        <v>1.334691493011022</v>
       </c>
       <c r="G2">
-        <v>0.0008007995157645278</v>
+        <v>0.9602068124337819</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.436796022602493E-06</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002395461231820661</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6330105322093829</v>
       </c>
       <c r="K2">
-        <v>2.817585394960247</v>
+        <v>0.7928439610859499</v>
       </c>
       <c r="L2">
-        <v>0.05282979247008157</v>
+        <v>0.2369129578894373</v>
       </c>
       <c r="M2">
-        <v>0.6909789834057349</v>
+        <v>3.925837055352474</v>
       </c>
       <c r="N2">
-        <v>0.8066735547476611</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.233851577737909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8386164567201178</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2482498091131191</v>
+        <v>0.01983666521225302</v>
       </c>
       <c r="D3">
-        <v>0.04045121963667953</v>
+        <v>0.1275547926227176</v>
       </c>
       <c r="E3">
-        <v>0.07772476203354728</v>
+        <v>0.1530281107848275</v>
       </c>
       <c r="F3">
-        <v>0.6775545143310993</v>
+        <v>1.234805477888358</v>
       </c>
       <c r="G3">
-        <v>0.0008055379163108056</v>
+        <v>0.8854002232488085</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003520538651107241</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001059852328114896</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6024059970404636</v>
       </c>
       <c r="K3">
-        <v>2.447223685865822</v>
+        <v>0.7340971814619124</v>
       </c>
       <c r="L3">
-        <v>0.05134989763488207</v>
+        <v>0.2095794137717135</v>
       </c>
       <c r="M3">
-        <v>0.602862812695534</v>
+        <v>3.417100451809631</v>
       </c>
       <c r="N3">
-        <v>0.8343809488130631</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.122642357105491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8556125103581422</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2342348014473998</v>
+        <v>0.01769501217058433</v>
       </c>
       <c r="D4">
-        <v>0.03893874893599403</v>
+        <v>0.1174228743087582</v>
       </c>
       <c r="E4">
-        <v>0.07467919839634618</v>
+        <v>0.1408249462317137</v>
       </c>
       <c r="F4">
-        <v>0.648954452026544</v>
+        <v>1.174142653907751</v>
       </c>
       <c r="G4">
-        <v>0.0008085421157842571</v>
+        <v>0.8400524513597958</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0008954886754291014</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006047288280068841</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.583987345024056</v>
       </c>
       <c r="K4">
-        <v>2.220512475962948</v>
+        <v>0.6982385624624285</v>
       </c>
       <c r="L4">
-        <v>0.05053469254613319</v>
+        <v>0.1928078079220228</v>
       </c>
       <c r="M4">
-        <v>0.5491222720136975</v>
+        <v>3.104277064035841</v>
       </c>
       <c r="N4">
-        <v>0.8524959911235968</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.059467840446757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8667930368865413</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2286101647024736</v>
+        <v>0.01661429985828988</v>
       </c>
       <c r="D5">
-        <v>0.03832112751291561</v>
+        <v>0.113430130789709</v>
       </c>
       <c r="E5">
-        <v>0.07346911464379247</v>
+        <v>0.1358885040814215</v>
       </c>
       <c r="F5">
-        <v>0.6376587998668199</v>
+        <v>1.148546492829851</v>
       </c>
       <c r="G5">
-        <v>0.0008097906898155338</v>
+        <v>0.8206901925867811</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001196969815187243</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005682575830476821</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.576057269301927</v>
       </c>
       <c r="K5">
-        <v>2.12826024488848</v>
+        <v>0.6826401833498394</v>
       </c>
       <c r="L5">
-        <v>0.05022484269117911</v>
+        <v>0.1859335978921166</v>
       </c>
       <c r="M5">
-        <v>0.5273018964609477</v>
+        <v>2.974985039445698</v>
       </c>
       <c r="N5">
-        <v>0.8601471500215183</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.034931287012569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8717932915950968</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2276812507051318</v>
+        <v>0.01618953929133937</v>
       </c>
       <c r="D6">
-        <v>0.03821849277992229</v>
+        <v>0.1129185435335103</v>
       </c>
       <c r="E6">
-        <v>0.07326999966189618</v>
+        <v>0.1351077098853324</v>
       </c>
       <c r="F6">
-        <v>0.635804162587533</v>
+        <v>1.143050486332569</v>
       </c>
       <c r="G6">
-        <v>0.0008099994986753978</v>
+        <v>0.8162435424927423</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001254054626723899</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006514316940684495</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5741211000844828</v>
       </c>
       <c r="K6">
-        <v>2.112948839427872</v>
+        <v>0.6787934546281846</v>
       </c>
       <c r="L6">
-        <v>0.05017471005256624</v>
+        <v>0.1847444369722808</v>
       </c>
       <c r="M6">
-        <v>0.5236830945851239</v>
+        <v>2.951460633938609</v>
       </c>
       <c r="N6">
-        <v>0.8614336455665423</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.030927775094455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8729584553818199</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2341586030806155</v>
+        <v>0.01700476110739402</v>
       </c>
       <c r="D7">
-        <v>0.03893042474193464</v>
+        <v>0.1177812183547786</v>
       </c>
       <c r="E7">
-        <v>0.07466275570146763</v>
+        <v>0.14086418292964</v>
       </c>
       <c r="F7">
-        <v>0.6488006923544347</v>
+        <v>1.170365063148779</v>
       </c>
       <c r="G7">
-        <v>0.0008085588552985858</v>
+        <v>0.8363997218178838</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0009047037435438998</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0008159305639416914</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5821727051207688</v>
       </c>
       <c r="K7">
-        <v>2.219267836440906</v>
+        <v>0.6945808606554351</v>
       </c>
       <c r="L7">
-        <v>0.05053042476750136</v>
+        <v>0.192584706730166</v>
       </c>
       <c r="M7">
-        <v>0.5488276889034296</v>
+        <v>3.096921430692589</v>
       </c>
       <c r="N7">
-        <v>0.8525980980046413</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.059132141126838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8677599407486198</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2635187332465421</v>
+        <v>0.02118930829926313</v>
       </c>
       <c r="D8">
-        <v>0.04206100963484261</v>
+        <v>0.1389659155410783</v>
       </c>
       <c r="E8">
-        <v>0.08108604747186732</v>
+        <v>0.1662145384679015</v>
       </c>
       <c r="F8">
-        <v>0.7093696248701633</v>
+        <v>1.295535578735283</v>
       </c>
       <c r="G8">
-        <v>0.0008024139488641952</v>
+        <v>0.9297672528108478</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.320544901898927E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002095716996221242</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.620109276073606</v>
       </c>
       <c r="K8">
-        <v>2.68971619762911</v>
+        <v>0.7679459106835438</v>
       </c>
       <c r="L8">
-        <v>0.0522994168781068</v>
+        <v>0.2273087343158551</v>
       </c>
       <c r="M8">
-        <v>0.6605136903050948</v>
+        <v>3.742972991438364</v>
       </c>
       <c r="N8">
-        <v>0.8159931877308537</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.194398694982539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8455750822070272</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3243293506906753</v>
+        <v>0.03050287987523603</v>
       </c>
       <c r="D9">
-        <v>0.04816631470685451</v>
+        <v>0.1803182870028479</v>
       </c>
       <c r="E9">
-        <v>0.09481436016320544</v>
+        <v>0.2160853779593808</v>
       </c>
       <c r="F9">
-        <v>0.8414325311667881</v>
+        <v>1.553345337578904</v>
       </c>
       <c r="G9">
-        <v>0.0007910920089544054</v>
+        <v>1.124397098585533</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001199376637964766</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007474710591442779</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7008878716603846</v>
       </c>
       <c r="K9">
-        <v>3.619722434041762</v>
+        <v>0.9201680036131847</v>
       </c>
       <c r="L9">
-        <v>0.05656521346791976</v>
+        <v>0.2959035291790428</v>
       </c>
       <c r="M9">
-        <v>0.8829998855256207</v>
+        <v>5.017861846782694</v>
       </c>
       <c r="N9">
-        <v>0.7533487556680143</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.503896642856574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8065735386307367</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3714362420849113</v>
+        <v>0.03752349833682445</v>
       </c>
       <c r="D10">
-        <v>0.05263831172801758</v>
+        <v>0.2060285980195005</v>
       </c>
       <c r="E10">
-        <v>0.1057300520074307</v>
+        <v>0.2434273054987912</v>
       </c>
       <c r="F10">
-        <v>0.9483251063026472</v>
+        <v>1.721822903139653</v>
       </c>
       <c r="G10">
-        <v>0.0007831819826263149</v>
+        <v>1.253768589127418</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004045546335610606</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01368595718076371</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.753824924700325</v>
       </c>
       <c r="K10">
-        <v>4.310551700430665</v>
+        <v>1.020972687659025</v>
       </c>
       <c r="L10">
-        <v>0.06026757170302588</v>
+        <v>0.3310275908541058</v>
       </c>
       <c r="M10">
-        <v>1.049471175979967</v>
+        <v>5.924095033574872</v>
       </c>
       <c r="N10">
-        <v>0.7134717056155608</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.763792166667628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7880251784611403</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3935041384004876</v>
+        <v>0.04462215437418848</v>
       </c>
       <c r="D11">
-        <v>0.05467160760701972</v>
+        <v>0.174114015242651</v>
       </c>
       <c r="E11">
-        <v>0.1109095973206635</v>
+        <v>0.1788758945258593</v>
       </c>
       <c r="F11">
-        <v>0.9995216158138334</v>
+        <v>1.587084997778021</v>
       </c>
       <c r="G11">
-        <v>0.0007796636287048456</v>
+        <v>1.167957098040574</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02259512368626204</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01598862184586114</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7062060466147102</v>
       </c>
       <c r="K11">
-        <v>4.627202060280183</v>
+        <v>0.9649873747757596</v>
       </c>
       <c r="L11">
-        <v>0.06209518501039923</v>
+        <v>0.2262679214491001</v>
       </c>
       <c r="M11">
-        <v>1.12607474305733</v>
+        <v>6.078845290565198</v>
       </c>
       <c r="N11">
-        <v>0.6968048966955749</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.890421834228647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8340577178494826</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4019624488462057</v>
+        <v>0.05083825283188759</v>
       </c>
       <c r="D12">
-        <v>0.05544157629758217</v>
+        <v>0.1438485391003042</v>
       </c>
       <c r="E12">
-        <v>0.1129047536897296</v>
+        <v>0.1283960880984623</v>
       </c>
       <c r="F12">
-        <v>1.019316607741928</v>
+        <v>1.447000489700216</v>
       </c>
       <c r="G12">
-        <v>0.0007783420621112745</v>
+        <v>1.075415138856727</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06086605424623315</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01620239858764627</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.658193807286608</v>
       </c>
       <c r="K12">
-        <v>4.747518474541721</v>
+        <v>0.902722398471191</v>
       </c>
       <c r="L12">
-        <v>0.06280967996209341</v>
+        <v>0.1509575764964453</v>
       </c>
       <c r="M12">
-        <v>1.155227865814553</v>
+        <v>6.023524371176052</v>
       </c>
       <c r="N12">
-        <v>0.6907182574554795</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.939702817691995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8813695867673914</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4001361131632564</v>
+        <v>0.0555552228948315</v>
       </c>
       <c r="D13">
-        <v>0.05527574696832005</v>
+        <v>0.1139445123822611</v>
       </c>
       <c r="E13">
-        <v>0.1124735083494741</v>
+        <v>0.08624499002462827</v>
       </c>
       <c r="F13">
-        <v>1.015034612509652</v>
+        <v>1.289877761845574</v>
       </c>
       <c r="G13">
-        <v>0.0007786262190810218</v>
+        <v>0.9672333971020066</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1158879745361077</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01504158540045886</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6044844955765996</v>
       </c>
       <c r="K13">
-        <v>4.721586960490583</v>
+        <v>0.8267423491480486</v>
       </c>
       <c r="L13">
-        <v>0.06265477345885628</v>
+        <v>0.09405266803371148</v>
       </c>
       <c r="M13">
-        <v>1.148942446222719</v>
+        <v>5.794855929426888</v>
       </c>
       <c r="N13">
-        <v>0.6920189143480897</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.929028132434524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.9326511702203391</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3941979117870176</v>
+        <v>0.05794588760704045</v>
       </c>
       <c r="D14">
-        <v>0.05473495237974646</v>
+        <v>0.09383770009709735</v>
       </c>
       <c r="E14">
-        <v>0.1110730450175268</v>
+        <v>0.06211345489002618</v>
       </c>
       <c r="F14">
-        <v>1.001141754247726</v>
+        <v>1.173017859660632</v>
       </c>
       <c r="G14">
-        <v>0.0007795546915279612</v>
+        <v>0.884633440287999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1646410775666993</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01373498879321833</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5643538669614543</v>
       </c>
       <c r="K14">
-        <v>4.637092002754628</v>
+        <v>0.7671016742038503</v>
       </c>
       <c r="L14">
-        <v>0.06215350683760335</v>
+        <v>0.06556422046674726</v>
       </c>
       <c r="M14">
-        <v>1.128470165849919</v>
+        <v>5.555873877705551</v>
       </c>
       <c r="N14">
-        <v>0.6962995643525787</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.894448845490928</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.9709902942858406</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.39057413861903</v>
+        <v>0.05775327617433845</v>
       </c>
       <c r="D15">
-        <v>0.05440370540837591</v>
+        <v>0.0888128604818732</v>
       </c>
       <c r="E15">
-        <v>0.1102197128038398</v>
+        <v>0.05679541739313265</v>
       </c>
       <c r="F15">
-        <v>0.9926863005905915</v>
+        <v>1.13962424664588</v>
       </c>
       <c r="G15">
-        <v>0.0007801247857348592</v>
+        <v>0.8600226651034859</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1769117310980874</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01323196909663693</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5528061734517848</v>
       </c>
       <c r="K15">
-        <v>4.585391513168588</v>
+        <v>0.7485187348061331</v>
       </c>
       <c r="L15">
-        <v>0.06184944183775443</v>
+        <v>0.05996376827443228</v>
       </c>
       <c r="M15">
-        <v>1.1159497860451</v>
+        <v>5.459413867515991</v>
       </c>
       <c r="N15">
-        <v>0.6989512495197658</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.873444877450538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.9808137247005959</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3700077283519363</v>
+        <v>0.05307147484361252</v>
       </c>
       <c r="D16">
-        <v>0.05250542283535253</v>
+        <v>0.08494384542738231</v>
       </c>
       <c r="E16">
-        <v>0.1053961134507517</v>
+        <v>0.05510908891559119</v>
       </c>
       <c r="F16">
-        <v>0.9450342273585051</v>
+        <v>1.100536193817831</v>
       </c>
       <c r="G16">
-        <v>0.0007834134623029601</v>
+        <v>0.8263887884425856</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1631687933894881</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01079654398725616</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.540730224559212</v>
       </c>
       <c r="K16">
-        <v>4.289911291449016</v>
+        <v>0.7200537945361631</v>
       </c>
       <c r="L16">
-        <v>0.06015116868107739</v>
+        <v>0.05852286643336413</v>
       </c>
       <c r="M16">
-        <v>1.044484163012505</v>
+        <v>5.118245779256654</v>
       </c>
       <c r="N16">
-        <v>0.7145916452222849</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.755695797907748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.9751628617464974</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3575612446745424</v>
+        <v>0.04820606731895083</v>
       </c>
       <c r="D17">
-        <v>0.05134072528387179</v>
+        <v>0.09227579874739433</v>
       </c>
       <c r="E17">
-        <v>0.1024938539986344</v>
+        <v>0.06549753236027911</v>
       </c>
       <c r="F17">
-        <v>0.9164859214888992</v>
+        <v>1.131560651409188</v>
       </c>
       <c r="G17">
-        <v>0.0007854509283405444</v>
+        <v>0.8438315809892885</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1249420162063473</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009670542380266767</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5525361682940826</v>
       </c>
       <c r="K17">
-        <v>4.10929956288112</v>
+        <v>0.7294442798268008</v>
       </c>
       <c r="L17">
-        <v>0.05914729333694169</v>
+        <v>0.0703546365744252</v>
       </c>
       <c r="M17">
-        <v>1.000879565948807</v>
+        <v>4.982873607487306</v>
       </c>
       <c r="N17">
-        <v>0.7245727322624589</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.685695427543948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.9507821780486836</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3504618438248883</v>
+        <v>0.04355949052484931</v>
       </c>
       <c r="D18">
-        <v>0.05067071415219715</v>
+        <v>0.1113103504718396</v>
       </c>
       <c r="E18">
-        <v>0.1008444943644555</v>
+        <v>0.0924248631953617</v>
       </c>
       <c r="F18">
-        <v>0.9003051703713254</v>
+        <v>1.231317919620537</v>
       </c>
       <c r="G18">
-        <v>0.0007866303982763042</v>
+        <v>0.9109024314886085</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07208840679147954</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009191241491737223</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5879712401065547</v>
       </c>
       <c r="K18">
-        <v>4.00563713633818</v>
+        <v>0.7756688805331464</v>
       </c>
       <c r="L18">
-        <v>0.0585832716073611</v>
+        <v>0.1050920382985723</v>
       </c>
       <c r="M18">
-        <v>0.9758804661680927</v>
+        <v>5.012544353917576</v>
       </c>
       <c r="N18">
-        <v>0.7304514524680314</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.646216091096818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9088087442436716</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3480680389555744</v>
+        <v>0.0381422442811612</v>
       </c>
       <c r="D19">
-        <v>0.05044383699522825</v>
+        <v>0.1413602611046798</v>
       </c>
       <c r="E19">
-        <v>0.1002893869760477</v>
+        <v>0.1385446070167049</v>
       </c>
       <c r="F19">
-        <v>0.8948666584377634</v>
+        <v>1.378564080636565</v>
       </c>
       <c r="G19">
-        <v>0.0007870310688873118</v>
+        <v>1.010289771517421</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02726218212338694</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009716795526450994</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6382744119144235</v>
       </c>
       <c r="K19">
-        <v>3.970574849337709</v>
+        <v>0.8439399090070765</v>
       </c>
       <c r="L19">
-        <v>0.05839454926758947</v>
+        <v>0.1709983170832103</v>
       </c>
       <c r="M19">
-        <v>0.9674295727048303</v>
+        <v>5.162268072499785</v>
       </c>
       <c r="N19">
-        <v>0.7324651892264527</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.632980026958137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8621301352182229</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3588799687070434</v>
+        <v>0.03349412186977929</v>
       </c>
       <c r="D20">
-        <v>0.05146471944397035</v>
+        <v>0.2003345589891126</v>
       </c>
       <c r="E20">
-        <v>0.1028007193837155</v>
+        <v>0.2361479126274659</v>
       </c>
       <c r="F20">
-        <v>0.9194998842564246</v>
+        <v>1.665369757452325</v>
       </c>
       <c r="G20">
-        <v>0.0007852332579865968</v>
+        <v>1.208047962848724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003106021026634487</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01245138204168494</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7340361867334195</v>
       </c>
       <c r="K20">
-        <v>4.128502703813695</v>
+        <v>0.9829596212145546</v>
       </c>
       <c r="L20">
-        <v>0.0592527601548305</v>
+        <v>0.3207038565404616</v>
       </c>
       <c r="M20">
-        <v>1.005512821142986</v>
+        <v>5.66662638198693</v>
       </c>
       <c r="N20">
-        <v>0.7234958704098915</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.693065201963833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7961056568808615</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3959392636895132</v>
+        <v>0.03850987534413264</v>
       </c>
       <c r="D21">
-        <v>0.05489379544969353</v>
+        <v>0.2282357677662787</v>
       </c>
       <c r="E21">
-        <v>0.1114834531921076</v>
+        <v>0.2722894023640663</v>
       </c>
       <c r="F21">
-        <v>1.005211029678762</v>
+        <v>1.836376803512181</v>
       </c>
       <c r="G21">
-        <v>0.000779281690855679</v>
+        <v>1.336645036706273</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.006061768381079413</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01815438211924469</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.789294810270917</v>
       </c>
       <c r="K21">
-        <v>4.661898611956985</v>
+        <v>1.080808898663889</v>
       </c>
       <c r="L21">
-        <v>0.06230011753125098</v>
+        <v>0.3720907657839234</v>
       </c>
       <c r="M21">
-        <v>1.134479273983757</v>
+        <v>6.410313948654959</v>
       </c>
       <c r="N21">
-        <v>0.6950360274972738</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.904568536185081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7745494286427714</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4207574574844841</v>
+        <v>0.04299532893733016</v>
       </c>
       <c r="D22">
-        <v>0.05713500070481814</v>
+        <v>0.2433213300152204</v>
       </c>
       <c r="E22">
-        <v>0.1173565659698745</v>
+        <v>0.2909434756547356</v>
       </c>
       <c r="F22">
-        <v>1.063626380343223</v>
+        <v>1.94175811376671</v>
       </c>
       <c r="G22">
-        <v>0.0007754543162353888</v>
+        <v>1.41811287210669</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008467599577562462</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02215087672488014</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8241915427542779</v>
       </c>
       <c r="K22">
-        <v>5.012914626038594</v>
+        <v>1.144233932254181</v>
       </c>
       <c r="L22">
-        <v>0.06442335084585693</v>
+        <v>0.3980778133771139</v>
       </c>
       <c r="M22">
-        <v>1.219621688241631</v>
+        <v>6.890599975462351</v>
       </c>
       <c r="N22">
-        <v>0.6777524165221323</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.050608573951962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7626775126226022</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4074533616618794</v>
+        <v>0.04143342941303985</v>
       </c>
       <c r="D23">
-        <v>0.05593876219502647</v>
+        <v>0.2347556047286758</v>
       </c>
       <c r="E23">
-        <v>0.1142027576299789</v>
+        <v>0.2808477388530335</v>
       </c>
       <c r="F23">
-        <v>1.032216071101146</v>
+        <v>1.889521717662049</v>
       </c>
       <c r="G23">
-        <v>0.0007774916154526176</v>
+        <v>1.378611644882568</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.007153689328976476</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01975583523216873</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.807546945438304</v>
       </c>
       <c r="K23">
-        <v>4.825327420220106</v>
+        <v>1.114493146410908</v>
       </c>
       <c r="L23">
-        <v>0.06327746582651272</v>
+        <v>0.3843570008067161</v>
       </c>
       <c r="M23">
-        <v>1.174094529536845</v>
+        <v>6.641157662892169</v>
       </c>
       <c r="N23">
-        <v>0.6868520302952987</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.971906994712072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7676409892727776</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3582835991041691</v>
+        <v>0.0342569001588231</v>
       </c>
       <c r="D24">
-        <v>0.0514086629756747</v>
+        <v>0.2033475262733475</v>
       </c>
       <c r="E24">
-        <v>0.1026619260014741</v>
+        <v>0.2430718342428051</v>
       </c>
       <c r="F24">
-        <v>0.9181365517659827</v>
+        <v>1.688043146741748</v>
       </c>
       <c r="G24">
-        <v>0.0007853316414310401</v>
+        <v>1.225130461108506</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00310617778483091</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01211266939381428</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7426636522781109</v>
       </c>
       <c r="K24">
-        <v>4.119820427671812</v>
+        <v>0.9965973158878256</v>
       </c>
       <c r="L24">
-        <v>0.05920503787604758</v>
+        <v>0.3324663407252331</v>
       </c>
       <c r="M24">
-        <v>1.003417910601996</v>
+        <v>5.68743762479869</v>
       </c>
       <c r="N24">
-        <v>0.7239822831098053</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.689730953759522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7903413377890516</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3074869046166668</v>
+        <v>0.02673125689252487</v>
       </c>
       <c r="D25">
-        <v>0.04651760656679471</v>
+        <v>0.1698186524863416</v>
       </c>
       <c r="E25">
-        <v>0.09096550380686352</v>
+        <v>0.2027328179720129</v>
       </c>
       <c r="F25">
-        <v>0.8041089595130586</v>
+        <v>1.476532263983742</v>
       </c>
       <c r="G25">
-        <v>0.0007940804857818895</v>
+        <v>1.064835359437225</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0005492543277445527</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005966936806689027</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6755173155439707</v>
       </c>
       <c r="K25">
-        <v>3.367036398692221</v>
+        <v>0.8723740602081023</v>
       </c>
       <c r="L25">
-        <v>0.05531774246932031</v>
+        <v>0.2770485704813268</v>
       </c>
       <c r="M25">
-        <v>0.8223516705360936</v>
+        <v>4.662533351244804</v>
       </c>
       <c r="N25">
-        <v>0.7692605150300693</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.414885920502456</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8182406385347605</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02328861020226469</v>
+        <v>0.002261116350968706</v>
       </c>
       <c r="D2">
-        <v>0.1441526472815866</v>
+        <v>0.1642828391679814</v>
       </c>
       <c r="E2">
-        <v>0.1729503872935751</v>
+        <v>0.1787889973997991</v>
       </c>
       <c r="F2">
-        <v>1.334691493011022</v>
+        <v>1.181386354733334</v>
       </c>
       <c r="G2">
-        <v>0.9602068124337819</v>
+        <v>0.7897367732231544</v>
       </c>
       <c r="H2">
-        <v>1.436796022602493E-06</v>
+        <v>5.287002955434161E-06</v>
       </c>
       <c r="I2">
-        <v>0.002395461231820661</v>
+        <v>0.002606412729985408</v>
       </c>
       <c r="J2">
-        <v>0.6330105322093829</v>
+        <v>0.5911521652969753</v>
       </c>
       <c r="K2">
-        <v>0.7928439610859499</v>
+        <v>0.6375430400292927</v>
       </c>
       <c r="L2">
-        <v>0.2369129578894373</v>
+        <v>0.3023613639657157</v>
       </c>
       <c r="M2">
-        <v>3.925837055352474</v>
+        <v>0.1892390828131099</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2322857162401135</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.680728137125129</v>
       </c>
       <c r="P2">
-        <v>0.8386164567201178</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8804922577255923</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01983666521225302</v>
+        <v>0.002362067588304484</v>
       </c>
       <c r="D3">
-        <v>0.1275547926227176</v>
+        <v>0.1449397627955165</v>
       </c>
       <c r="E3">
-        <v>0.1530281107848275</v>
+        <v>0.1584067740210067</v>
       </c>
       <c r="F3">
-        <v>1.234805477888358</v>
+        <v>1.102271767654258</v>
       </c>
       <c r="G3">
-        <v>0.8854002232488085</v>
+        <v>0.7368925644079525</v>
       </c>
       <c r="H3">
-        <v>0.0003520538651107241</v>
+        <v>0.0003402715285230062</v>
       </c>
       <c r="I3">
-        <v>0.001059852328114896</v>
+        <v>0.001388468291231959</v>
       </c>
       <c r="J3">
-        <v>0.6024059970404636</v>
+        <v>0.565981449218242</v>
       </c>
       <c r="K3">
-        <v>0.7340971814619124</v>
+        <v>0.5986133405487095</v>
       </c>
       <c r="L3">
-        <v>0.2095794137717135</v>
+        <v>0.2966647801634821</v>
       </c>
       <c r="M3">
-        <v>3.417100451809631</v>
+        <v>0.1662708546411586</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2062379482111396</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.213005432339116</v>
       </c>
       <c r="P3">
-        <v>0.8556125103581422</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8861550818228778</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01769501217058433</v>
+        <v>0.002503248560950411</v>
       </c>
       <c r="D4">
-        <v>0.1174228743087582</v>
+        <v>0.1331496592656549</v>
       </c>
       <c r="E4">
-        <v>0.1408249462317137</v>
+        <v>0.1459182393626683</v>
       </c>
       <c r="F4">
-        <v>1.174142653907751</v>
+        <v>1.054060184551346</v>
       </c>
       <c r="G4">
-        <v>0.8400524513597958</v>
+        <v>0.7049215217723344</v>
       </c>
       <c r="H4">
-        <v>0.0008954886754291014</v>
+        <v>0.0008248612514800691</v>
       </c>
       <c r="I4">
-        <v>0.0006047288280068841</v>
+        <v>0.0009027467932716249</v>
       </c>
       <c r="J4">
-        <v>0.583987345024056</v>
+        <v>0.5505290605230186</v>
       </c>
       <c r="K4">
-        <v>0.6982385624624285</v>
+        <v>0.5746595567463828</v>
       </c>
       <c r="L4">
-        <v>0.1928078079220228</v>
+        <v>0.2928600246325246</v>
       </c>
       <c r="M4">
-        <v>3.104277064035841</v>
+        <v>0.1529632484289749</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1902310122972537</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.924774659600786</v>
       </c>
       <c r="P4">
-        <v>0.8667930368865413</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.89048415282506</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01661429985828988</v>
+        <v>0.002510079890635453</v>
       </c>
       <c r="D5">
-        <v>0.113430130789709</v>
+        <v>0.128490325504373</v>
       </c>
       <c r="E5">
-        <v>0.1358885040814215</v>
+        <v>0.1408648056105832</v>
       </c>
       <c r="F5">
-        <v>1.148546492829851</v>
+        <v>1.033579266940563</v>
       </c>
       <c r="G5">
-        <v>0.8206901925867811</v>
+        <v>0.6911265291059863</v>
       </c>
       <c r="H5">
-        <v>0.001196969815187243</v>
+        <v>0.001090526625353361</v>
       </c>
       <c r="I5">
-        <v>0.0005682575830476821</v>
+        <v>0.0008414543624919446</v>
       </c>
       <c r="J5">
-        <v>0.576057269301927</v>
+        <v>0.5437678129640773</v>
       </c>
       <c r="K5">
-        <v>0.6826401833498394</v>
+        <v>0.5640113020405195</v>
       </c>
       <c r="L5">
-        <v>0.1859335978921166</v>
+        <v>0.2908518022249638</v>
       </c>
       <c r="M5">
-        <v>2.974985039445698</v>
+        <v>0.1474604063632974</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1836659775554494</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.805497562822183</v>
       </c>
       <c r="P5">
-        <v>0.8717932915950968</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8927686451489194</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01618953929133937</v>
+        <v>0.002430517275543664</v>
       </c>
       <c r="D6">
-        <v>0.1129185435335103</v>
+        <v>0.1278712117708949</v>
       </c>
       <c r="E6">
-        <v>0.1351077098853324</v>
+        <v>0.1400641413579748</v>
       </c>
       <c r="F6">
-        <v>1.143050486332569</v>
+        <v>1.029065892050781</v>
       </c>
       <c r="G6">
-        <v>0.8162435424927423</v>
+        <v>0.6877755435797042</v>
       </c>
       <c r="H6">
-        <v>0.001254054626723899</v>
+        <v>0.001140593052370464</v>
       </c>
       <c r="I6">
-        <v>0.0006514316940684495</v>
+        <v>0.0009349965300708973</v>
       </c>
       <c r="J6">
-        <v>0.5741211000844828</v>
+        <v>0.542080031317056</v>
       </c>
       <c r="K6">
-        <v>0.6787934546281846</v>
+        <v>0.5611800044907937</v>
       </c>
       <c r="L6">
-        <v>0.1847444369722808</v>
+        <v>0.2900501170261336</v>
       </c>
       <c r="M6">
-        <v>2.951460633938609</v>
+        <v>0.1462203042195931</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1825315166105241</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.78378838307745</v>
       </c>
       <c r="P6">
-        <v>0.8729584553818199</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8935449506523483</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01700476110739402</v>
+        <v>0.002322477199388828</v>
       </c>
       <c r="D7">
-        <v>0.1177812183547786</v>
+        <v>0.1337653663135114</v>
       </c>
       <c r="E7">
-        <v>0.14086418292964</v>
+        <v>0.146019931938703</v>
       </c>
       <c r="F7">
-        <v>1.170365063148779</v>
+        <v>1.048863936446352</v>
       </c>
       <c r="G7">
-        <v>0.8363997218178838</v>
+        <v>0.7055401069844294</v>
       </c>
       <c r="H7">
-        <v>0.0009047037435438998</v>
+        <v>0.0008354139386594905</v>
       </c>
       <c r="I7">
-        <v>0.0008159305639416914</v>
+        <v>0.001153121857353945</v>
       </c>
       <c r="J7">
-        <v>0.5821727051207688</v>
+        <v>0.5421637024220303</v>
       </c>
       <c r="K7">
-        <v>0.6945808606554351</v>
+        <v>0.570471774881625</v>
       </c>
       <c r="L7">
-        <v>0.192584706730166</v>
+        <v>0.2910978666525708</v>
       </c>
       <c r="M7">
-        <v>3.096921430692589</v>
+        <v>0.1515711315175707</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1899500487862227</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.914843387450986</v>
       </c>
       <c r="P7">
-        <v>0.8677599407486198</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8922336906842858</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02118930829926313</v>
+        <v>0.002127145889668114</v>
       </c>
       <c r="D8">
-        <v>0.1389659155410783</v>
+        <v>0.1590263013522417</v>
       </c>
       <c r="E8">
-        <v>0.1662145384679015</v>
+        <v>0.1721143816694237</v>
       </c>
       <c r="F8">
-        <v>1.295535578735283</v>
+        <v>1.143781866224984</v>
       </c>
       <c r="G8">
-        <v>0.9297672528108478</v>
+        <v>0.7800148108706821</v>
       </c>
       <c r="H8">
-        <v>5.320544901898927E-05</v>
+        <v>6.459179932005732E-05</v>
       </c>
       <c r="I8">
-        <v>0.002095716996221242</v>
+        <v>0.002410792629104819</v>
       </c>
       <c r="J8">
-        <v>0.620109276073606</v>
+        <v>0.5582884571399944</v>
       </c>
       <c r="K8">
-        <v>0.7679459106835438</v>
+        <v>0.6165120489888665</v>
       </c>
       <c r="L8">
-        <v>0.2273087343158551</v>
+        <v>0.2973628495882039</v>
       </c>
       <c r="M8">
-        <v>3.742972991438364</v>
+        <v>0.1785007327262811</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2229045599073416</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.502166936698302</v>
       </c>
       <c r="P8">
-        <v>0.8455750822070272</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8860481247313459</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03050287987523603</v>
+        <v>0.002695603075192565</v>
       </c>
       <c r="D9">
-        <v>0.1803182870028479</v>
+        <v>0.2076303503589116</v>
       </c>
       <c r="E9">
-        <v>0.2160853779593808</v>
+        <v>0.2231653482194105</v>
       </c>
       <c r="F9">
-        <v>1.553345337578904</v>
+        <v>1.345660968035702</v>
       </c>
       <c r="G9">
-        <v>1.124397098585533</v>
+        <v>0.9221402294291039</v>
       </c>
       <c r="H9">
-        <v>0.001199376637964766</v>
+        <v>0.0009240080417303176</v>
       </c>
       <c r="I9">
-        <v>0.007474710591442779</v>
+        <v>0.006776150477043608</v>
       </c>
       <c r="J9">
-        <v>0.7008878716603846</v>
+        <v>0.6168210364977824</v>
       </c>
       <c r="K9">
-        <v>0.9201680036131847</v>
+        <v>0.7159638049800066</v>
       </c>
       <c r="L9">
-        <v>0.2959035291790428</v>
+        <v>0.3111032531221412</v>
       </c>
       <c r="M9">
-        <v>5.017861846782694</v>
+        <v>0.2409764076542515</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2880339722637899</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.667272377468294</v>
       </c>
       <c r="P9">
-        <v>0.8065735386307367</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8765747350484361</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03752349833682445</v>
+        <v>0.004024048863090712</v>
       </c>
       <c r="D10">
-        <v>0.2060285980195005</v>
+        <v>0.2397439287710625</v>
       </c>
       <c r="E10">
-        <v>0.2434273054987912</v>
+        <v>0.2514831535498843</v>
       </c>
       <c r="F10">
-        <v>1.721822903139653</v>
+        <v>1.463910546161927</v>
       </c>
       <c r="G10">
-        <v>1.253768589127418</v>
+        <v>1.03795507323612</v>
       </c>
       <c r="H10">
-        <v>0.004045546335610606</v>
+        <v>0.003237648211615429</v>
       </c>
       <c r="I10">
-        <v>0.01368595718076371</v>
+        <v>0.01157345677315558</v>
       </c>
       <c r="J10">
-        <v>0.753824924700325</v>
+        <v>0.6152175572746472</v>
       </c>
       <c r="K10">
-        <v>1.020972687659025</v>
+        <v>0.773012026334257</v>
       </c>
       <c r="L10">
-        <v>0.3310275908541058</v>
+        <v>0.3139480012910809</v>
       </c>
       <c r="M10">
-        <v>5.924095033574872</v>
+        <v>0.2845995514495812</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3202995589229403</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5.47371500319008</v>
       </c>
       <c r="P10">
-        <v>0.7880251784611403</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.8857385746548658</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04462215437418848</v>
+        <v>0.007241726187785957</v>
       </c>
       <c r="D11">
-        <v>0.174114015242651</v>
+        <v>0.2075960371276722</v>
       </c>
       <c r="E11">
-        <v>0.1788758945258593</v>
+        <v>0.1858460641343527</v>
       </c>
       <c r="F11">
-        <v>1.587084997778021</v>
+        <v>1.320541126727832</v>
       </c>
       <c r="G11">
-        <v>1.167957098040574</v>
+        <v>1.009740281906417</v>
       </c>
       <c r="H11">
-        <v>0.02259512368626204</v>
+        <v>0.02168751768200394</v>
       </c>
       <c r="I11">
-        <v>0.01598862184586114</v>
+        <v>0.01342453492581441</v>
       </c>
       <c r="J11">
-        <v>0.7062060466147102</v>
+        <v>0.5032496784890554</v>
       </c>
       <c r="K11">
-        <v>0.9649873747757596</v>
+        <v>0.7132250263614068</v>
       </c>
       <c r="L11">
-        <v>0.2262679214491001</v>
+        <v>0.284904356173854</v>
       </c>
       <c r="M11">
-        <v>6.078845290565198</v>
+        <v>0.2703308547191199</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2163715528786057</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>5.58276375764143</v>
       </c>
       <c r="P11">
-        <v>0.8340577178494826</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.9612282186191834</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05083825283188759</v>
+        <v>0.01077526023438224</v>
       </c>
       <c r="D12">
-        <v>0.1438485391003042</v>
+        <v>0.1745669383713704</v>
       </c>
       <c r="E12">
-        <v>0.1283960880984623</v>
+        <v>0.1338974270188054</v>
       </c>
       <c r="F12">
-        <v>1.447000489700216</v>
+        <v>1.190817131398774</v>
       </c>
       <c r="G12">
-        <v>1.075415138856727</v>
+        <v>0.951847824513635</v>
       </c>
       <c r="H12">
-        <v>0.06086605424623315</v>
+        <v>0.05999581036076762</v>
       </c>
       <c r="I12">
-        <v>0.01620239858764627</v>
+        <v>0.01354817705866562</v>
       </c>
       <c r="J12">
-        <v>0.658193807286608</v>
+        <v>0.4395741331864258</v>
       </c>
       <c r="K12">
-        <v>0.902722398471191</v>
+        <v>0.6605016555600898</v>
       </c>
       <c r="L12">
-        <v>0.1509575764964453</v>
+        <v>0.263730583736411</v>
       </c>
       <c r="M12">
-        <v>6.023524371176052</v>
+        <v>0.2523823908799727</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1426667430871333</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.521824701518767</v>
       </c>
       <c r="P12">
-        <v>0.8813695867673914</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.024673108361895</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0555552228948315</v>
+        <v>0.01413449397363209</v>
       </c>
       <c r="D13">
-        <v>0.1139445123822611</v>
+        <v>0.139634680853689</v>
       </c>
       <c r="E13">
-        <v>0.08624499002462827</v>
+        <v>0.08995329315977685</v>
       </c>
       <c r="F13">
-        <v>1.289877761845574</v>
+        <v>1.062411801726611</v>
       </c>
       <c r="G13">
-        <v>0.9672333971020066</v>
+        <v>0.855227599509675</v>
       </c>
       <c r="H13">
-        <v>0.1158879745361077</v>
+        <v>0.1151670780157303</v>
       </c>
       <c r="I13">
-        <v>0.01504158540045886</v>
+        <v>0.01269613172439144</v>
       </c>
       <c r="J13">
-        <v>0.6044844955765996</v>
+        <v>0.4117937214246581</v>
       </c>
       <c r="K13">
-        <v>0.8267423491480486</v>
+        <v>0.6076945859914957</v>
       </c>
       <c r="L13">
-        <v>0.09405266803371148</v>
+        <v>0.2459231064990419</v>
       </c>
       <c r="M13">
-        <v>5.794855929426888</v>
+        <v>0.2300068336041079</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08792408561143716</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5.326975744939944</v>
       </c>
       <c r="P13">
-        <v>0.9326511702203391</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.078718245479337</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05794588760704045</v>
+        <v>0.0163074116918267</v>
       </c>
       <c r="D14">
-        <v>0.09383770009709735</v>
+        <v>0.1152986609249496</v>
       </c>
       <c r="E14">
-        <v>0.06211345489002618</v>
+        <v>0.06454183930467039</v>
       </c>
       <c r="F14">
-        <v>1.173017859660632</v>
+        <v>0.9726147384401145</v>
       </c>
       <c r="G14">
-        <v>0.884633440287999</v>
+        <v>0.7721586688664814</v>
       </c>
       <c r="H14">
-        <v>0.1646410775666993</v>
+        <v>0.1640582743179237</v>
       </c>
       <c r="I14">
-        <v>0.01373498879321833</v>
+        <v>0.01177774489707417</v>
       </c>
       <c r="J14">
-        <v>0.5643538669614543</v>
+        <v>0.4053292237605461</v>
       </c>
       <c r="K14">
-        <v>0.7671016742038503</v>
+        <v>0.5698202181273615</v>
       </c>
       <c r="L14">
-        <v>0.06556422046674726</v>
+        <v>0.2344623193434714</v>
       </c>
       <c r="M14">
-        <v>5.555873877705551</v>
+        <v>0.2122203825837303</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06104152018888342</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5.128577844313895</v>
       </c>
       <c r="P14">
-        <v>0.9709902942858406</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.112341460643947</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05775327617433845</v>
+        <v>0.01647777534284245</v>
       </c>
       <c r="D15">
-        <v>0.0888128604818732</v>
+        <v>0.1089305215097625</v>
       </c>
       <c r="E15">
-        <v>0.05679541739313265</v>
+        <v>0.05890261500926464</v>
       </c>
       <c r="F15">
-        <v>1.13962424664588</v>
+        <v>0.9490333245892941</v>
       </c>
       <c r="G15">
-        <v>0.8600226651034859</v>
+        <v>0.7442620679435521</v>
       </c>
       <c r="H15">
-        <v>0.1769117310980874</v>
+        <v>0.17638514075432</v>
       </c>
       <c r="I15">
-        <v>0.01323196909663693</v>
+        <v>0.01146834403193164</v>
       </c>
       <c r="J15">
-        <v>0.5528061734517848</v>
+        <v>0.4088117078108411</v>
       </c>
       <c r="K15">
-        <v>0.7485187348061331</v>
+        <v>0.559204103396965</v>
       </c>
       <c r="L15">
-        <v>0.05996376827443228</v>
+        <v>0.2317845938905094</v>
       </c>
       <c r="M15">
-        <v>5.459413867515991</v>
+        <v>0.2065197548235673</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05589558167383579</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5.049573837094613</v>
       </c>
       <c r="P15">
-        <v>0.9808137247005959</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.118222075748761</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05307147484361252</v>
+        <v>0.01424363619419466</v>
       </c>
       <c r="D16">
-        <v>0.08494384542738231</v>
+        <v>0.1020881964681877</v>
       </c>
       <c r="E16">
-        <v>0.05510908891559119</v>
+        <v>0.05705203269732273</v>
       </c>
       <c r="F16">
-        <v>1.100536193817831</v>
+        <v>0.937500459158656</v>
       </c>
       <c r="G16">
-        <v>0.8263887884425856</v>
+        <v>0.6847351387036866</v>
       </c>
       <c r="H16">
-        <v>0.1631687933894881</v>
+        <v>0.1628576464843121</v>
       </c>
       <c r="I16">
-        <v>0.01079654398725616</v>
+        <v>0.009731767064145025</v>
       </c>
       <c r="J16">
-        <v>0.540730224559212</v>
+        <v>0.4561443696289302</v>
       </c>
       <c r="K16">
-        <v>0.7200537945361631</v>
+        <v>0.552717576816967</v>
       </c>
       <c r="L16">
-        <v>0.05852286643336413</v>
+        <v>0.2354195943890716</v>
       </c>
       <c r="M16">
-        <v>5.118245779256654</v>
+        <v>0.1961425075115386</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05517836022165135</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.772659814801102</v>
       </c>
       <c r="P16">
-        <v>0.9751628617464974</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.088784715368803</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04820606731895083</v>
+        <v>0.0115619408257146</v>
       </c>
       <c r="D17">
-        <v>0.09227579874739433</v>
+        <v>0.109393298927202</v>
       </c>
       <c r="E17">
-        <v>0.06549753236027911</v>
+        <v>0.06791211594300606</v>
       </c>
       <c r="F17">
-        <v>1.131560651409188</v>
+        <v>0.9741555670553907</v>
       </c>
       <c r="G17">
-        <v>0.8438315809892885</v>
+        <v>0.6866030575124711</v>
       </c>
       <c r="H17">
-        <v>0.1249420162063473</v>
+        <v>0.1247153082239265</v>
       </c>
       <c r="I17">
-        <v>0.009670542380266767</v>
+        <v>0.008915011054219768</v>
       </c>
       <c r="J17">
-        <v>0.5525361682940826</v>
+        <v>0.491540918352328</v>
       </c>
       <c r="K17">
-        <v>0.7294442798268008</v>
+        <v>0.5665078737565779</v>
       </c>
       <c r="L17">
-        <v>0.0703546365744252</v>
+        <v>0.2441172471689868</v>
       </c>
       <c r="M17">
-        <v>4.982873607487306</v>
+        <v>0.1968839909267572</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06683310999456182</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.660283857702098</v>
       </c>
       <c r="P17">
-        <v>0.9507821780486836</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.051500985986507</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04355949052484931</v>
+        <v>0.008649072316117667</v>
       </c>
       <c r="D18">
-        <v>0.1113103504718396</v>
+        <v>0.1304999856698714</v>
       </c>
       <c r="E18">
-        <v>0.0924248631953617</v>
+        <v>0.09585848969499366</v>
       </c>
       <c r="F18">
-        <v>1.231317919620537</v>
+        <v>1.064473960950579</v>
       </c>
       <c r="G18">
-        <v>0.9109024314886085</v>
+        <v>0.7361724916794827</v>
       </c>
       <c r="H18">
-        <v>0.07208840679147954</v>
+        <v>0.07186753608268504</v>
       </c>
       <c r="I18">
-        <v>0.009191241491737223</v>
+        <v>0.008457332050761046</v>
       </c>
       <c r="J18">
-        <v>0.5879712401065547</v>
+        <v>0.5321351265555592</v>
       </c>
       <c r="K18">
-        <v>0.7756688805331464</v>
+        <v>0.6042676943972936</v>
       </c>
       <c r="L18">
-        <v>0.1050920382985723</v>
+        <v>0.2601261737146672</v>
       </c>
       <c r="M18">
-        <v>5.012544353917576</v>
+        <v>0.2089196732478342</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1006330736955618</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.68751447666267</v>
       </c>
       <c r="P18">
-        <v>0.9088087442436716</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.001371450502347</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0381422442811612</v>
+        <v>0.005525705030411387</v>
       </c>
       <c r="D19">
-        <v>0.1413602611046798</v>
+        <v>0.1641903111028995</v>
       </c>
       <c r="E19">
-        <v>0.1385446070167049</v>
+        <v>0.1434117476976446</v>
       </c>
       <c r="F19">
-        <v>1.378564080636565</v>
+        <v>1.192220532275442</v>
       </c>
       <c r="G19">
-        <v>1.010289771517421</v>
+        <v>0.8151279053007983</v>
       </c>
       <c r="H19">
-        <v>0.02726218212338694</v>
+        <v>0.0269748932738807</v>
       </c>
       <c r="I19">
-        <v>0.009716795526450994</v>
+        <v>0.008903861071118513</v>
       </c>
       <c r="J19">
-        <v>0.6382744119144235</v>
+        <v>0.5768747059315729</v>
       </c>
       <c r="K19">
-        <v>0.8439399090070765</v>
+        <v>0.6558310671286662</v>
       </c>
       <c r="L19">
-        <v>0.1709983170832103</v>
+        <v>0.2798433861402998</v>
       </c>
       <c r="M19">
-        <v>5.162268072499785</v>
+        <v>0.2280706776281036</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1649737534476401</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.818261574382177</v>
       </c>
       <c r="P19">
-        <v>0.8621301352182229</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9494779397076485</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03349412186977929</v>
+        <v>0.00297580073387671</v>
       </c>
       <c r="D20">
-        <v>0.2003345589891126</v>
+        <v>0.2314114169738275</v>
       </c>
       <c r="E20">
-        <v>0.2361479126274659</v>
+        <v>0.2437005649756969</v>
       </c>
       <c r="F20">
-        <v>1.665369757452325</v>
+        <v>1.429050750003711</v>
       </c>
       <c r="G20">
-        <v>1.208047962848724</v>
+        <v>0.9837300634941641</v>
       </c>
       <c r="H20">
-        <v>0.003106021026634487</v>
+        <v>0.002484137648981477</v>
       </c>
       <c r="I20">
-        <v>0.01245138204168494</v>
+        <v>0.01098427638439681</v>
       </c>
       <c r="J20">
-        <v>0.7340361867334195</v>
+        <v>0.6339392610187105</v>
       </c>
       <c r="K20">
-        <v>0.9829596212145546</v>
+        <v>0.7528296604703968</v>
       </c>
       <c r="L20">
-        <v>0.3207038565404616</v>
+        <v>0.3113639739803986</v>
       </c>
       <c r="M20">
-        <v>5.66662638198693</v>
+        <v>0.2708670657119754</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.311050953371506</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5.256320889313145</v>
       </c>
       <c r="P20">
-        <v>0.7961056568808615</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.8843509055951273</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03850987534413264</v>
+        <v>0.004598375303309865</v>
       </c>
       <c r="D21">
-        <v>0.2282357677662787</v>
+        <v>0.2705403676690139</v>
       </c>
       <c r="E21">
-        <v>0.2722894023640663</v>
+        <v>0.282274320226243</v>
       </c>
       <c r="F21">
-        <v>1.836376803512181</v>
+        <v>1.519380183161346</v>
       </c>
       <c r="G21">
-        <v>1.336645036706273</v>
+        <v>1.172231956188341</v>
       </c>
       <c r="H21">
-        <v>0.006061768381079413</v>
+        <v>0.004767748222013535</v>
       </c>
       <c r="I21">
-        <v>0.01815438211924469</v>
+        <v>0.01505436464207399</v>
       </c>
       <c r="J21">
-        <v>0.789294810270917</v>
+        <v>0.5295389899302023</v>
       </c>
       <c r="K21">
-        <v>1.080808898663889</v>
+        <v>0.7900733408078366</v>
       </c>
       <c r="L21">
-        <v>0.3720907657839234</v>
+        <v>0.3110951349266884</v>
       </c>
       <c r="M21">
-        <v>6.410313948654959</v>
+        <v>0.3027331809054559</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3582835978146477</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.853251863097682</v>
       </c>
       <c r="P21">
-        <v>0.7745494286427714</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.8984205928694422</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04299532893733016</v>
+        <v>0.006251229391754265</v>
       </c>
       <c r="D22">
-        <v>0.2433213300152204</v>
+        <v>0.293265971556167</v>
       </c>
       <c r="E22">
-        <v>0.2909434756547356</v>
+        <v>0.3025453049076745</v>
       </c>
       <c r="F22">
-        <v>1.94175811376671</v>
+        <v>1.569308891743134</v>
       </c>
       <c r="G22">
-        <v>1.41811287210669</v>
+        <v>1.304045635645934</v>
       </c>
       <c r="H22">
-        <v>0.008467599577562462</v>
+        <v>0.006628969995497613</v>
       </c>
       <c r="I22">
-        <v>0.02215087672488014</v>
+        <v>0.01770869887717463</v>
       </c>
       <c r="J22">
-        <v>0.8241915427542779</v>
+        <v>0.4607454070765584</v>
       </c>
       <c r="K22">
-        <v>1.144233932254181</v>
+        <v>0.8120843713262218</v>
       </c>
       <c r="L22">
-        <v>0.3980778133771139</v>
+        <v>0.3100266867880777</v>
       </c>
       <c r="M22">
-        <v>6.890599975462351</v>
+        <v>0.323172603743437</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3815050703360612</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>6.231352487202855</v>
       </c>
       <c r="P22">
-        <v>0.7626775126226022</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.912188366941777</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04143342941303985</v>
+        <v>0.005477752284278381</v>
       </c>
       <c r="D23">
-        <v>0.2347556047286758</v>
+        <v>0.2798243324618568</v>
       </c>
       <c r="E23">
-        <v>0.2808477388530335</v>
+        <v>0.2913890046088738</v>
       </c>
       <c r="F23">
-        <v>1.889521717662049</v>
+        <v>1.551123567047327</v>
       </c>
       <c r="G23">
-        <v>1.378611644882568</v>
+        <v>1.22581124504751</v>
       </c>
       <c r="H23">
-        <v>0.007153689328976476</v>
+        <v>0.005624904122536911</v>
       </c>
       <c r="I23">
-        <v>0.01975583523216873</v>
+        <v>0.01599867392021981</v>
       </c>
       <c r="J23">
-        <v>0.807546945438304</v>
+        <v>0.512195875113747</v>
       </c>
       <c r="K23">
-        <v>1.114493146410908</v>
+        <v>0.8066316703945517</v>
       </c>
       <c r="L23">
-        <v>0.3843570008067161</v>
+        <v>0.312787339725368</v>
       </c>
       <c r="M23">
-        <v>6.641157662892169</v>
+        <v>0.3147878944140672</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3694429915500024</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>6.044760743287554</v>
       </c>
       <c r="P23">
-        <v>0.7676409892727776</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9008121205697108</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0342569001588231</v>
+        <v>0.003104093009095976</v>
       </c>
       <c r="D24">
-        <v>0.2033475262733475</v>
+        <v>0.2347696667332144</v>
       </c>
       <c r="E24">
-        <v>0.2430718342428051</v>
+        <v>0.2507814197101652</v>
       </c>
       <c r="F24">
-        <v>1.688043146741748</v>
+        <v>1.449085577876502</v>
       </c>
       <c r="G24">
-        <v>1.225130461108506</v>
+        <v>0.9972283856466788</v>
       </c>
       <c r="H24">
-        <v>0.00310617778483091</v>
+        <v>0.00246766573060353</v>
       </c>
       <c r="I24">
-        <v>0.01211266939381428</v>
+        <v>0.01052359714515472</v>
       </c>
       <c r="J24">
-        <v>0.7426636522781109</v>
+        <v>0.6423699800622131</v>
       </c>
       <c r="K24">
-        <v>0.9965973158878256</v>
+        <v>0.7637188943782292</v>
       </c>
       <c r="L24">
-        <v>0.3324663407252331</v>
+        <v>0.3155458467974981</v>
       </c>
       <c r="M24">
-        <v>5.68743762479869</v>
+        <v>0.2748892169503279</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3226060139614191</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>5.275030798874809</v>
       </c>
       <c r="P24">
-        <v>0.7903413377890516</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.8771773396280622</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02673125689252487</v>
+        <v>0.002065205066831055</v>
       </c>
       <c r="D25">
-        <v>0.1698186524863416</v>
+        <v>0.1947868603061238</v>
       </c>
       <c r="E25">
-        <v>0.2027328179720129</v>
+        <v>0.2094041884793469</v>
       </c>
       <c r="F25">
-        <v>1.476532263983742</v>
+        <v>1.287751797728404</v>
       </c>
       <c r="G25">
-        <v>1.064835359437225</v>
+        <v>0.872413414400512</v>
       </c>
       <c r="H25">
-        <v>0.0005492543277445527</v>
+        <v>0.0004085832315339211</v>
       </c>
       <c r="I25">
-        <v>0.005966936806689027</v>
+        <v>0.005755349977397017</v>
       </c>
       <c r="J25">
-        <v>0.6755173155439707</v>
+        <v>0.6077059822653581</v>
       </c>
       <c r="K25">
-        <v>0.8723740602081023</v>
+        <v>0.6854672804265292</v>
       </c>
       <c r="L25">
-        <v>0.2770485704813268</v>
+        <v>0.3062733434619531</v>
       </c>
       <c r="M25">
-        <v>4.662533351244804</v>
+        <v>0.222017522659911</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2702739582951637</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>4.347792327075126</v>
       </c>
       <c r="P25">
-        <v>0.8182406385347605</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8794807457950711</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
